--- a/projects/training_lhs2.xlsx
+++ b/projects/training_lhs2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="0" windowWidth="2970" windowHeight="9105" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="16800" yWindow="0" windowWidth="2976" windowHeight="9108" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -1741,9 +1741,6 @@
     <t>Measure Directory Name</t>
   </si>
   <si>
-    <t>0.2.0</t>
-  </si>
-  <si>
     <t>AnalysisType</t>
   </si>
   <si>
@@ -1957,9 +1954,6 @@
     <t>Choose which OpenStudio Server Version to Use.  Do NOT change this unless advised. Note that this is not the OpenStudio version.  See mappings here: http://developer.nrel.gov/downloads/buildings/openstudio/rsrc/amis_v2.json</t>
   </si>
   <si>
-    <t>1.5.6</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Worker Only - </t>
   </si>
   <si>
@@ -2177,6 +2171,12 @@
   </si>
   <si>
     <t>Office Sampling 2</t>
+  </si>
+  <si>
+    <t>1.6.1-rc1</t>
+  </si>
+  <si>
+    <t>0.2.2</t>
   </si>
 </sst>
 </file>
@@ -2243,7 +2243,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2298,6 +2298,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3731,7 +3737,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3816,6 +3822,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5546,9 +5553,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -5577,20 +5584,20 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="58.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.7109375" style="1"/>
+    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="58.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
       <c r="B1" s="31"/>
       <c r="C1" s="19"/>
@@ -5599,7 +5606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>438</v>
       </c>
@@ -5608,18 +5615,18 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>439</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>566</v>
+        <v>711</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28.95" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>462</v>
       </c>
@@ -5635,29 +5642,29 @@
         <v>479</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>638</v>
+        <v>710</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="46.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>480</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="28.95" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>445</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C7" s="38" t="str">
         <f>VLOOKUP($B7,instance_defs,2,FALSE)&amp;VLOOKUP($B7,instance_defs,4,FALSE)</f>
@@ -5668,10 +5675,10 @@
         <v>$0.14/hour</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.95" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>446</v>
       </c>
@@ -5690,7 +5697,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>464</v>
       </c>
@@ -5700,10 +5707,10 @@
       <c r="C9" s="3"/>
       <c r="D9" s="38"/>
       <c r="E9" s="2" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>29</v>
       </c>
@@ -5712,29 +5719,29 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -5742,7 +5749,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>472</v>
       </c>
@@ -5753,7 +5760,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="28.95" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>473</v>
       </c>
@@ -5761,10 +5768,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>474</v>
       </c>
@@ -5775,7 +5782,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>476</v>
       </c>
@@ -5791,7 +5798,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -5799,7 +5806,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>457</v>
       </c>
@@ -5807,7 +5814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="29"/>
       <c r="D22" s="2"/>
     </row>
@@ -5816,19 +5823,19 @@
         <v>454</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C23" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>632</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>633</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="34" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,1,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$26,1,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
         <v>Sample Method</v>
@@ -5845,7 +5852,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,2,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$26,2,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
         <v>Number of Samples</v>
@@ -5862,7 +5869,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="34" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,3,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$26,3,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
         <v/>
@@ -5877,7 +5884,7 @@
       </c>
       <c r="D26" s="40"/>
     </row>
-    <row r="27" spans="1:5" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,4,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$26,4,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
         <v/>
@@ -5892,7 +5899,7 @@
       </c>
       <c r="D27" s="40"/>
     </row>
-    <row r="28" spans="1:5" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,5,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$26,5,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
         <v/>
@@ -5907,7 +5914,7 @@
       </c>
       <c r="D28" s="40"/>
     </row>
-    <row r="29" spans="1:5" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,6,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$26,6,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
         <v/>
@@ -5922,7 +5929,7 @@
       </c>
       <c r="D29" s="40"/>
     </row>
-    <row r="30" spans="1:5" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,7,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$26,7,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
         <v/>
@@ -5937,7 +5944,7 @@
       </c>
       <c r="D30" s="40"/>
     </row>
-    <row r="31" spans="1:5" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,8,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$26,8,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
         <v/>
@@ -5952,7 +5959,7 @@
       </c>
       <c r="D31" s="40"/>
     </row>
-    <row r="32" spans="1:5" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,9,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$26,9,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
         <v/>
@@ -5967,7 +5974,7 @@
       </c>
       <c r="D32" s="40"/>
     </row>
-    <row r="33" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="34" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,10,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$26,10,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
         <v/>
@@ -5982,7 +5989,7 @@
       </c>
       <c r="D33" s="40"/>
     </row>
-    <row r="34" spans="1:5" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="34" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$17:$Z$27,11,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$27,11,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
         <v/>
@@ -5997,12 +6004,12 @@
       </c>
       <c r="D34" s="40"/>
     </row>
-    <row r="35" spans="1:5" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>34</v>
       </c>
@@ -6015,7 +6022,7 @@
       <c r="D36" s="11"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>30</v>
       </c>
@@ -6023,7 +6030,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>31</v>
       </c>
@@ -6040,24 +6047,24 @@
         <v>452</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C40" s="21" t="s">
         <v>43</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>36</v>
       </c>
@@ -6065,11 +6072,11 @@
         <v>35</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="13" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -6105,32 +6112,32 @@
   <dimension ref="A1:Z93"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+      <selection activeCell="A44" activeCellId="5" sqref="A13:XFD13 A21:XFD21 A25:XFD25 A34:XFD34 A39:XFD39 A44:XFD44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
-    <col min="14" max="15" width="7.7109375" style="1" customWidth="1"/>
-    <col min="16" max="17" width="11.42578125" style="1"/>
-    <col min="18" max="18" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="1"/>
-    <col min="20" max="20" width="46.140625" style="1" customWidth="1"/>
-    <col min="21" max="23" width="11.42578125" style="1"/>
-    <col min="24" max="24" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="39.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
+    <col min="14" max="15" width="7.6640625" style="1" customWidth="1"/>
+    <col min="16" max="17" width="11.44140625" style="1"/>
+    <col min="18" max="18" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" style="1"/>
+    <col min="20" max="20" width="46.109375" style="1" customWidth="1"/>
+    <col min="21" max="23" width="11.44140625" style="1"/>
+    <col min="24" max="24" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
@@ -6160,14 +6167,14 @@
       <c r="R1" s="24"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="42" t="s">
+      <c r="U1" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -6185,7 +6192,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:26" s="14" customFormat="1" ht="62.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -6262,24 +6269,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="b">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E4" s="33" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="33" t="s">
         <v>22</v>
       </c>
@@ -6299,7 +6306,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="33" t="s">
         <v>22</v>
       </c>
@@ -6335,7 +6342,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
         <v>22</v>
       </c>
@@ -6355,7 +6362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="33" t="s">
         <v>22</v>
       </c>
@@ -6375,15 +6382,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="33" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F9" s="33" t="s">
         <v>2</v>
@@ -6395,7 +6402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="33" t="s">
         <v>22</v>
       </c>
@@ -6415,7 +6422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="33" t="s">
         <v>22</v>
       </c>
@@ -6435,7 +6442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="b">
         <v>1</v>
       </c>
@@ -6443,7 +6450,7 @@
         <v>386</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>79</v>
@@ -6452,43 +6459,43 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B13" s="33" t="s">
+    <row r="13" spans="1:26" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="33" t="s">
-        <v>708</v>
-      </c>
-      <c r="E13" s="33" t="s">
+      <c r="D13" s="42" t="s">
+        <v>706</v>
+      </c>
+      <c r="E13" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="42">
         <v>0.4</v>
       </c>
-      <c r="K13" s="33">
+      <c r="K13" s="42">
         <v>0.3</v>
       </c>
-      <c r="L13" s="33">
+      <c r="L13" s="42">
         <v>0.5</v>
       </c>
-      <c r="M13" s="33">
+      <c r="M13" s="42">
         <v>0.4</v>
       </c>
-      <c r="N13" s="33">
+      <c r="N13" s="42">
         <f>(L13+K13)/6</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="R13" s="33" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="R13" s="42" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="33" t="s">
         <v>22</v>
       </c>
@@ -6508,7 +6515,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="33" t="s">
         <v>22</v>
       </c>
@@ -6531,7 +6538,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="b">
         <v>1</v>
       </c>
@@ -6539,7 +6546,7 @@
         <v>386</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D16" s="33" t="s">
         <v>79</v>
@@ -6548,7 +6555,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="33" t="s">
         <v>22</v>
       </c>
@@ -6568,7 +6575,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="33" t="s">
         <v>22</v>
       </c>
@@ -6588,7 +6595,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="33" t="s">
         <v>22</v>
       </c>
@@ -6605,13 +6612,13 @@
         <v>65</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="J19" s="33" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="b">
         <v>1</v>
       </c>
@@ -6619,7 +6626,7 @@
         <v>386</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D20" s="33" t="s">
         <v>79</v>
@@ -6628,43 +6635,43 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B21" s="33" t="s">
+    <row r="21" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="33" t="s">
-        <v>710</v>
-      </c>
-      <c r="E21" s="33" t="s">
+      <c r="D21" s="42" t="s">
+        <v>708</v>
+      </c>
+      <c r="E21" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="42">
         <v>0.4</v>
       </c>
-      <c r="K21" s="33">
+      <c r="K21" s="42">
         <v>0.3</v>
       </c>
-      <c r="L21" s="33">
+      <c r="L21" s="42">
         <v>0.5</v>
       </c>
-      <c r="M21" s="33">
+      <c r="M21" s="42">
         <v>0.4</v>
       </c>
-      <c r="N21" s="33">
+      <c r="N21" s="42">
         <f>(L21+K21)/6</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="R21" s="33" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="R21" s="42" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="33" t="s">
         <v>22</v>
       </c>
@@ -6684,7 +6691,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="33" t="s">
         <v>22</v>
       </c>
@@ -6701,13 +6708,13 @@
         <v>65</v>
       </c>
       <c r="I23" s="33" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="J23" s="33" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="33" t="b">
         <v>1</v>
       </c>
@@ -6715,7 +6722,7 @@
         <v>386</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D24" s="33" t="s">
         <v>79</v>
@@ -6724,43 +6731,43 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B25" s="33" t="s">
+    <row r="25" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="33" t="s">
-        <v>709</v>
-      </c>
-      <c r="E25" s="33" t="s">
+      <c r="D25" s="42" t="s">
+        <v>707</v>
+      </c>
+      <c r="E25" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="33" t="s">
+      <c r="G25" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="42">
         <v>0.4</v>
       </c>
-      <c r="K25" s="33">
+      <c r="K25" s="42">
         <v>0.3</v>
       </c>
-      <c r="L25" s="33">
+      <c r="L25" s="42">
         <v>0.5</v>
       </c>
-      <c r="M25" s="33">
+      <c r="M25" s="42">
         <v>0.4</v>
       </c>
-      <c r="N25" s="33">
+      <c r="N25" s="42">
         <f>(L25+K25)/6</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="R25" s="33" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="R25" s="42" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="33" t="s">
         <v>22</v>
       </c>
@@ -6780,7 +6787,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="33" t="s">
         <v>22</v>
       </c>
@@ -6797,38 +6804,38 @@
         <v>65</v>
       </c>
       <c r="I27" s="33" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="J27" s="33" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="b">
         <v>1</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E28" s="33" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="33" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F29" s="33" t="s">
         <v>2</v>
@@ -6837,21 +6844,21 @@
         <v>65</v>
       </c>
       <c r="I29" s="33" t="s">
+        <v>652</v>
+      </c>
+      <c r="J29" s="33" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="33" t="s">
         <v>654</v>
       </c>
-      <c r="J29" s="33" t="s">
+      <c r="E30" s="33" t="s">
         <v>655</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B30" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>656</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>657</v>
       </c>
       <c r="F30" s="33" t="s">
         <v>2</v>
@@ -6860,21 +6867,21 @@
         <v>65</v>
       </c>
       <c r="I30" s="33" t="s">
+        <v>656</v>
+      </c>
+      <c r="J30" s="33" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="33" t="s">
         <v>658</v>
       </c>
-      <c r="J30" s="33" t="s">
+      <c r="E31" s="33" t="s">
         <v>659</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B31" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>660</v>
-      </c>
-      <c r="E31" s="33" t="s">
-        <v>661</v>
       </c>
       <c r="F31" s="33" t="s">
         <v>2</v>
@@ -6883,18 +6890,18 @@
         <v>65</v>
       </c>
       <c r="I31" s="33" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="J31" s="33" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="33" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E32" s="33" t="s">
         <v>131</v>
@@ -6909,7 +6916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="33" t="b">
         <v>1</v>
       </c>
@@ -6917,7 +6924,7 @@
         <v>172</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D33" s="33" t="s">
         <v>173</v>
@@ -6926,43 +6933,43 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B34" s="33" t="s">
+    <row r="34" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="33" t="s">
-        <v>704</v>
-      </c>
-      <c r="E34" s="33" t="s">
+      <c r="D34" s="42" t="s">
+        <v>702</v>
+      </c>
+      <c r="E34" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="F34" s="33" t="s">
+      <c r="F34" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="33" t="s">
+      <c r="G34" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="I34" s="33">
+      <c r="I34" s="42">
         <v>0.5</v>
       </c>
-      <c r="K34" s="33">
-        <v>0</v>
-      </c>
-      <c r="L34" s="33">
+      <c r="K34" s="42">
+        <v>0</v>
+      </c>
+      <c r="L34" s="42">
         <v>0.8</v>
       </c>
-      <c r="M34" s="33">
+      <c r="M34" s="42">
         <v>0.5</v>
       </c>
-      <c r="N34" s="33">
+      <c r="N34" s="42">
         <f>(L34+K34)/6</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="R34" s="33" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="R34" s="42" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="33" t="s">
         <v>22</v>
       </c>
@@ -6985,7 +6992,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="33" t="s">
         <v>22</v>
       </c>
@@ -7005,7 +7012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="33" t="s">
         <v>22</v>
       </c>
@@ -7022,10 +7029,10 @@
         <v>65</v>
       </c>
       <c r="J37" s="33" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="33" t="b">
         <v>1</v>
       </c>
@@ -7033,7 +7040,7 @@
         <v>172</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D38" s="33" t="s">
         <v>173</v>
@@ -7042,43 +7049,43 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B39" s="33" t="s">
+    <row r="39" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="33" t="s">
-        <v>705</v>
-      </c>
-      <c r="E39" s="33" t="s">
+      <c r="D39" s="42" t="s">
+        <v>703</v>
+      </c>
+      <c r="E39" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="F39" s="33" t="s">
+      <c r="F39" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="33" t="s">
+      <c r="G39" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="I39" s="33">
+      <c r="I39" s="42">
         <v>0.5</v>
       </c>
-      <c r="K39" s="33">
-        <v>0</v>
-      </c>
-      <c r="L39" s="33">
+      <c r="K39" s="42">
+        <v>0</v>
+      </c>
+      <c r="L39" s="42">
         <v>0.8</v>
       </c>
-      <c r="M39" s="33">
+      <c r="M39" s="42">
         <v>0.5</v>
       </c>
-      <c r="N39" s="33">
+      <c r="N39" s="42">
         <f>(L39+K39)/6</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="R39" s="33" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="R39" s="42" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="33" t="s">
         <v>22</v>
       </c>
@@ -7095,13 +7102,13 @@
         <v>65</v>
       </c>
       <c r="I40" s="33" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="J40" s="33" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="33" t="s">
         <v>22</v>
       </c>
@@ -7121,7 +7128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="33" t="s">
         <v>22</v>
       </c>
@@ -7138,10 +7145,10 @@
         <v>65</v>
       </c>
       <c r="J42" s="33" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="33" t="b">
         <v>1</v>
       </c>
@@ -7149,7 +7156,7 @@
         <v>172</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D43" s="33" t="s">
         <v>173</v>
@@ -7158,43 +7165,43 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B44" s="33" t="s">
+    <row r="44" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="33" t="s">
-        <v>706</v>
-      </c>
-      <c r="E44" s="33" t="s">
+      <c r="D44" s="42" t="s">
+        <v>704</v>
+      </c>
+      <c r="E44" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="F44" s="33" t="s">
+      <c r="F44" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="33" t="s">
+      <c r="G44" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="I44" s="33">
+      <c r="I44" s="42">
         <v>0.5</v>
       </c>
-      <c r="K44" s="33">
-        <v>0</v>
-      </c>
-      <c r="L44" s="33">
+      <c r="K44" s="42">
+        <v>0</v>
+      </c>
+      <c r="L44" s="42">
         <v>0.8</v>
       </c>
-      <c r="M44" s="33">
+      <c r="M44" s="42">
         <v>0.5</v>
       </c>
-      <c r="N44" s="33">
+      <c r="N44" s="42">
         <f>(L44+K44)/6</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="R44" s="33" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="R44" s="42" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="33" t="s">
         <v>22</v>
       </c>
@@ -7211,13 +7218,13 @@
         <v>65</v>
       </c>
       <c r="I45" s="33" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="J45" s="33" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B46" s="33" t="s">
         <v>22</v>
       </c>
@@ -7237,7 +7244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="33" t="s">
         <v>22</v>
       </c>
@@ -7254,35 +7261,35 @@
         <v>65</v>
       </c>
       <c r="J47" s="33" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="33" t="b">
         <v>1</v>
       </c>
       <c r="B48" s="33" t="s">
+        <v>661</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>662</v>
+      </c>
+      <c r="D48" s="33" t="s">
         <v>663</v>
-      </c>
-      <c r="C48" s="33" t="s">
-        <v>664</v>
-      </c>
-      <c r="D48" s="33" t="s">
-        <v>665</v>
       </c>
       <c r="E48" s="33" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:26" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B49" s="33" t="s">
         <v>22</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F49" s="33" t="s">
         <v>2</v>
@@ -7294,15 +7301,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:26" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B50" s="33" t="s">
         <v>22</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E50" s="33" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F50" s="33" t="s">
         <v>2</v>
@@ -7498,7 +7505,7 @@
       <c r="V58" s="25"/>
       <c r="W58" s="25"/>
     </row>
-    <row r="59" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
@@ -7522,7 +7529,7 @@
       <c r="V59" s="25"/>
       <c r="W59" s="25"/>
     </row>
-    <row r="60" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
@@ -7547,7 +7554,7 @@
       <c r="V60" s="25"/>
       <c r="W60" s="25"/>
     </row>
-    <row r="61" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="17"/>
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
@@ -7572,7 +7579,7 @@
       <c r="V61" s="25"/>
       <c r="W61" s="25"/>
     </row>
-    <row r="62" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
@@ -7596,7 +7603,7 @@
       <c r="V62" s="25"/>
       <c r="W62" s="25"/>
     </row>
-    <row r="63" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="17"/>
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
@@ -7623,7 +7630,7 @@
       <c r="Y63" s="25"/>
       <c r="Z63" s="25"/>
     </row>
-    <row r="64" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="17"/>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
@@ -7650,7 +7657,7 @@
       <c r="Y64" s="25"/>
       <c r="Z64" s="25"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65" s="33"/>
@@ -7669,7 +7676,7 @@
       <c r="Y65" s="25"/>
       <c r="Z65" s="25"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66" s="33"/>
@@ -7688,7 +7695,7 @@
       <c r="Y66" s="25"/>
       <c r="Z66" s="25"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67" s="33"/>
@@ -7707,7 +7714,7 @@
       <c r="Y67" s="25"/>
       <c r="Z67" s="25"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68" s="33"/>
@@ -7729,7 +7736,7 @@
       <c r="X68" s="25"/>
       <c r="Y68" s="25"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69" s="33"/>
@@ -7747,7 +7754,7 @@
       <c r="X69" s="25"/>
       <c r="Y69" s="25"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70" s="33"/>
@@ -7765,7 +7772,7 @@
       <c r="X70" s="25"/>
       <c r="Y70" s="25"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71" s="33"/>
@@ -7783,7 +7790,7 @@
       <c r="X71" s="25"/>
       <c r="Y71" s="25"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72" s="33"/>
@@ -7801,7 +7808,7 @@
       <c r="X72" s="25"/>
       <c r="Y72" s="25"/>
     </row>
-    <row r="73" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C73" s="33"/>
       <c r="K73" s="4"/>
       <c r="L73" s="1"/>
@@ -7816,7 +7823,7 @@
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
     </row>
-    <row r="74" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C74" s="33"/>
       <c r="K74" s="4"/>
       <c r="N74" s="17"/>
@@ -7828,7 +7835,7 @@
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
     </row>
-    <row r="75" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C75" s="33"/>
       <c r="K75" s="4"/>
       <c r="L75" s="1"/>
@@ -7843,7 +7850,7 @@
       <c r="U75" s="1"/>
       <c r="V75" s="1"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76" s="33"/>
@@ -7856,7 +7863,7 @@
       <c r="J76"/>
       <c r="K76" s="4"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77" s="33"/>
@@ -7869,7 +7876,7 @@
       <c r="J77"/>
       <c r="K77" s="4"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78" s="33"/>
@@ -7882,7 +7889,7 @@
       <c r="J78"/>
       <c r="K78" s="4"/>
     </row>
-    <row r="79" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="34"/>
@@ -7903,7 +7910,7 @@
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
     </row>
-    <row r="80" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="C80" s="33"/>
       <c r="N80" s="1"/>
@@ -7913,7 +7920,7 @@
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
     </row>
-    <row r="81" spans="1:25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="17"/>
       <c r="C81" s="33"/>
       <c r="N81" s="1"/>
@@ -7923,46 +7930,46 @@
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
     </row>
-    <row r="82" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C82" s="33"/>
     </row>
-    <row r="83" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C83" s="33"/>
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
       <c r="S83" s="1"/>
     </row>
-    <row r="84" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C84" s="33"/>
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
       <c r="S84" s="1"/>
     </row>
-    <row r="85" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C85" s="33"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C86" s="33"/>
       <c r="O86" s="3"/>
       <c r="P86" s="3"/>
       <c r="S86" s="1"/>
     </row>
-    <row r="87" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C87" s="33"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C88" s="33"/>
       <c r="O88" s="3"/>
       <c r="P88" s="3"/>
       <c r="S88" s="1"/>
     </row>
-    <row r="89" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C89" s="33"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C90" s="33"/>
       <c r="F90" s="1"/>
       <c r="H90" s="1"/>
@@ -7970,7 +7977,7 @@
       <c r="P90" s="3"/>
       <c r="S90" s="1"/>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91" s="33"/>
@@ -7997,7 +8004,7 @@
       <c r="X91" s="25"/>
       <c r="Y91" s="25"/>
     </row>
-    <row r="92" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C92" s="33"/>
       <c r="O92" s="3"/>
       <c r="P92" s="3"/>
@@ -8005,7 +8012,7 @@
       <c r="R92" s="25"/>
       <c r="S92" s="25"/>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C93" s="34"/>
       <c r="I93" s="1"/>
       <c r="K93" s="4"/>
@@ -8033,16 +8040,16 @@
       <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="29.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
@@ -8079,7 +8086,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="14" customFormat="1" ht="31.15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
@@ -8093,9 +8100,9 @@
         <v>563</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>550</v>
@@ -8110,7 +8117,7 @@
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
-    <row r="5" spans="1:9" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
         <v>551</v>
       </c>
@@ -8127,12 +8134,12 @@
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
     </row>
-    <row r="6" spans="1:9" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>478</v>
@@ -8146,12 +8153,12 @@
       <c r="H6" s="33"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>478</v>
@@ -8165,15 +8172,15 @@
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
     </row>
-    <row r="8" spans="1:9" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D8" s="33" t="b">
         <v>0</v>
@@ -8181,15 +8188,15 @@
       <c r="F8" s="32"/>
       <c r="G8" s="33"/>
     </row>
-    <row r="9" spans="1:9" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D9" s="33" t="b">
         <v>0</v>
@@ -8197,15 +8204,15 @@
       <c r="F9" s="32"/>
       <c r="G9" s="33"/>
     </row>
-    <row r="10" spans="1:9" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D10" s="33" t="b">
         <v>0</v>
@@ -8214,15 +8221,15 @@
       <c r="F10" s="32"/>
       <c r="G10" s="33"/>
     </row>
-    <row r="11" spans="1:9" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D11" s="33" t="b">
         <v>0</v>
@@ -8231,15 +8238,15 @@
       <c r="F11" s="32"/>
       <c r="G11" s="33"/>
     </row>
-    <row r="12" spans="1:9" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D12" s="33" t="b">
         <v>0</v>
@@ -8248,15 +8255,15 @@
       <c r="F12" s="32"/>
       <c r="G12" s="33"/>
     </row>
-    <row r="13" spans="1:9" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D13" s="33" t="b">
         <v>0</v>
@@ -8265,15 +8272,15 @@
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
     </row>
-    <row r="14" spans="1:9" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D14" s="33" t="b">
         <v>0</v>
@@ -8282,15 +8289,15 @@
       <c r="F14" s="32"/>
       <c r="G14" s="33"/>
     </row>
-    <row r="15" spans="1:9" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D15" s="33" t="b">
         <v>0</v>
@@ -8299,15 +8306,15 @@
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
     </row>
-    <row r="16" spans="1:9" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D16" s="33" t="b">
         <v>0</v>
@@ -8316,15 +8323,15 @@
       <c r="F16" s="32"/>
       <c r="G16" s="33"/>
     </row>
-    <row r="17" spans="1:7" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D17" s="33" t="b">
         <v>0</v>
@@ -8332,15 +8339,15 @@
       <c r="E17" s="37"/>
       <c r="F17" s="32"/>
     </row>
-    <row r="18" spans="1:7" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D18" s="33" t="b">
         <v>0</v>
@@ -8348,15 +8355,15 @@
       <c r="E18" s="37"/>
       <c r="F18" s="32"/>
     </row>
-    <row r="19" spans="1:7" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D19" s="33" t="b">
         <v>0</v>
@@ -8364,15 +8371,15 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
     </row>
-    <row r="20" spans="1:7" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D20" s="33" t="b">
         <v>0</v>
@@ -8380,15 +8387,15 @@
       <c r="E20" s="37"/>
       <c r="F20" s="32"/>
     </row>
-    <row r="21" spans="1:7" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D21" s="33" t="b">
         <v>0</v>
@@ -8396,15 +8403,15 @@
       <c r="E21" s="37"/>
       <c r="F21" s="32"/>
     </row>
-    <row r="22" spans="1:7" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D22" s="33" t="b">
         <v>0</v>
@@ -8412,15 +8419,15 @@
       <c r="E22" s="37"/>
       <c r="F22" s="32"/>
     </row>
-    <row r="23" spans="1:7" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D23" s="33" t="b">
         <v>0</v>
@@ -8429,15 +8436,15 @@
       <c r="F23" s="32"/>
       <c r="G23" s="33"/>
     </row>
-    <row r="24" spans="1:7" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="33" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D24" s="33" t="b">
         <v>0</v>
@@ -8446,15 +8453,15 @@
       <c r="F24" s="32"/>
       <c r="G24" s="33"/>
     </row>
-    <row r="25" spans="1:7" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D25" s="33" t="b">
         <v>0</v>
@@ -8462,15 +8469,15 @@
       <c r="F25" s="32"/>
       <c r="G25" s="33"/>
     </row>
-    <row r="26" spans="1:7" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D26" s="33" t="b">
         <v>0</v>
@@ -8478,15 +8485,15 @@
       <c r="F26" s="32"/>
       <c r="G26" s="33"/>
     </row>
-    <row r="27" spans="1:7" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D27" s="33" t="b">
         <v>0</v>
@@ -8494,15 +8501,15 @@
       <c r="F27" s="32"/>
       <c r="G27" s="33"/>
     </row>
-    <row r="28" spans="1:7" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D28" s="33" t="b">
         <v>0</v>
@@ -8511,15 +8518,15 @@
       <c r="F28" s="32"/>
       <c r="G28" s="33"/>
     </row>
-    <row r="29" spans="1:7" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D29" s="33" t="b">
         <v>0</v>
@@ -8528,15 +8535,15 @@
       <c r="F29" s="32"/>
       <c r="G29" s="33"/>
     </row>
-    <row r="30" spans="1:7" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D30" s="33" t="b">
         <v>0</v>
@@ -8545,15 +8552,15 @@
       <c r="F30" s="32"/>
       <c r="G30" s="33"/>
     </row>
-    <row r="31" spans="1:7" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="33" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D31" s="33" t="b">
         <v>0</v>
@@ -8581,16 +8588,16 @@
       <selection sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -9353,7 +9360,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>22</v>
@@ -9376,7 +9383,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>22</v>
@@ -9399,7 +9406,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>22</v>
@@ -9422,7 +9429,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>22</v>
@@ -9445,7 +9452,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>22</v>
@@ -9468,7 +9475,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>22</v>
@@ -9491,7 +9498,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -9510,7 +9517,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>22</v>
@@ -9531,7 +9538,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>22</v>
@@ -9554,7 +9561,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>22</v>
@@ -9577,7 +9584,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>22</v>
@@ -9600,7 +9607,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>22</v>
@@ -9623,7 +9630,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>22</v>
@@ -9646,7 +9653,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>22</v>
@@ -9669,7 +9676,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>22</v>
@@ -9692,7 +9699,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>22</v>
@@ -9715,7 +9722,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -9734,7 +9741,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>22</v>
@@ -9755,7 +9762,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>22</v>
@@ -9778,7 +9785,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>22</v>
@@ -9801,7 +9808,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>22</v>
@@ -9824,7 +9831,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>22</v>
@@ -9847,7 +9854,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>22</v>
@@ -9870,7 +9877,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>22</v>
@@ -9893,7 +9900,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>22</v>
@@ -9916,7 +9923,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>22</v>
@@ -9939,7 +9946,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -9958,7 +9965,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>22</v>
@@ -9979,7 +9986,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>22</v>
@@ -10004,7 +10011,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>22</v>
@@ -10027,7 +10034,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>22</v>
@@ -10050,7 +10057,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>22</v>
@@ -10073,7 +10080,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>22</v>
@@ -10096,7 +10103,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>22</v>
@@ -10119,7 +10126,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>22</v>
@@ -10142,7 +10149,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>22</v>
@@ -10165,7 +10172,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>22</v>
@@ -10188,7 +10195,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -10207,7 +10214,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>22</v>
@@ -10228,7 +10235,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>22</v>
@@ -10251,7 +10258,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>22</v>
@@ -10276,7 +10283,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>22</v>
@@ -10299,7 +10306,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>22</v>
@@ -10322,7 +10329,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>22</v>
@@ -10345,7 +10352,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>22</v>
@@ -10368,7 +10375,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>22</v>
@@ -10391,7 +10398,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>22</v>
@@ -10414,7 +10421,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>22</v>
@@ -10437,7 +10444,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>22</v>
@@ -10460,7 +10467,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>22</v>
@@ -10483,7 +10490,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>22</v>
@@ -10506,7 +10513,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -10525,7 +10532,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>22</v>
@@ -10548,7 +10555,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>22</v>
@@ -10571,7 +10578,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>22</v>
@@ -10594,7 +10601,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>22</v>
@@ -10617,7 +10624,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>22</v>
@@ -10640,7 +10647,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>22</v>
@@ -10663,7 +10670,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>22</v>
@@ -10686,7 +10693,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>22</v>
@@ -10709,7 +10716,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>22</v>
@@ -10732,7 +10739,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>22</v>
@@ -10755,7 +10762,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -10774,7 +10781,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>22</v>
@@ -10799,7 +10806,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -10818,7 +10825,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>22</v>
@@ -10839,7 +10846,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>22</v>
@@ -10864,7 +10871,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -10883,7 +10890,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>22</v>
@@ -10906,7 +10913,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>22</v>
@@ -10931,7 +10938,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>22</v>
@@ -10954,7 +10961,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>22</v>
@@ -10975,7 +10982,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -10994,7 +11001,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>22</v>
@@ -11019,7 +11026,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>22</v>
@@ -11042,7 +11049,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>22</v>
@@ -11065,7 +11072,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>22</v>
@@ -11088,7 +11095,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>22</v>
@@ -11111,7 +11118,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>22</v>
@@ -11134,7 +11141,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>22</v>
@@ -11157,7 +11164,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -11176,7 +11183,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>22</v>
@@ -11199,7 +11206,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>22</v>
@@ -11222,7 +11229,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>22</v>
@@ -11245,7 +11252,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -11264,7 +11271,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>22</v>
@@ -11287,7 +11294,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>22</v>
@@ -11310,7 +11317,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>22</v>
@@ -11333,7 +11340,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>22</v>
@@ -11356,7 +11363,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>22</v>
@@ -11379,7 +11386,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>22</v>
@@ -11402,7 +11409,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -11421,7 +11428,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>22</v>
@@ -11446,7 +11453,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>22</v>
@@ -11469,7 +11476,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>22</v>
@@ -11492,7 +11499,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>22</v>
@@ -11515,7 +11522,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>22</v>
@@ -11538,7 +11545,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>22</v>
@@ -11561,7 +11568,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>22</v>
@@ -11584,7 +11591,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>22</v>
@@ -11607,7 +11614,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>22</v>
@@ -11630,7 +11637,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -11649,7 +11656,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>22</v>
@@ -11674,7 +11681,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>22</v>
@@ -11695,7 +11702,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>22</v>
@@ -11718,7 +11725,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>22</v>
@@ -11741,7 +11748,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>22</v>
@@ -11764,7 +11771,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>22</v>
@@ -11787,7 +11794,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>22</v>
@@ -11810,7 +11817,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>22</v>
@@ -11833,7 +11840,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>22</v>
@@ -11856,7 +11863,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>22</v>
@@ -11879,7 +11886,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>22</v>
@@ -11902,7 +11909,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>22</v>
@@ -11925,7 +11932,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>22</v>
@@ -11948,7 +11955,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>22</v>
@@ -11971,7 +11978,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -11990,7 +11997,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>22</v>
@@ -12013,7 +12020,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -12032,7 +12039,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>22</v>
@@ -12055,7 +12062,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>22</v>
@@ -12078,7 +12085,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -12097,7 +12104,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>22</v>
@@ -12122,7 +12129,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>22</v>
@@ -12145,7 +12152,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>22</v>
@@ -12168,7 +12175,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>22</v>
@@ -12191,7 +12198,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>22</v>
@@ -12214,7 +12221,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>22</v>
@@ -12237,7 +12244,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>22</v>
@@ -12260,7 +12267,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>22</v>
@@ -12283,7 +12290,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>22</v>
@@ -12306,7 +12313,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>22</v>
@@ -12329,7 +12336,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -12348,7 +12355,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>22</v>
@@ -12373,7 +12380,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>22</v>
@@ -12396,7 +12403,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>22</v>
@@ -12419,7 +12426,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>22</v>
@@ -12442,7 +12449,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>22</v>
@@ -12465,7 +12472,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>22</v>
@@ -12488,7 +12495,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>22</v>
@@ -12511,7 +12518,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>22</v>
@@ -12534,7 +12541,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>22</v>
@@ -12557,7 +12564,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>22</v>
@@ -12580,7 +12587,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -12599,7 +12606,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>22</v>
@@ -12622,7 +12629,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>22</v>
@@ -12645,7 +12652,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>22</v>
@@ -12668,7 +12675,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>22</v>
@@ -12691,7 +12698,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -12710,7 +12717,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>22</v>
@@ -12733,7 +12740,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>22</v>
@@ -12756,7 +12763,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>22</v>
@@ -12779,7 +12786,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>22</v>
@@ -12802,7 +12809,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -12821,7 +12828,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>22</v>
@@ -12842,7 +12849,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>22</v>
@@ -12865,7 +12872,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -12884,7 +12891,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>22</v>
@@ -12907,7 +12914,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>22</v>
@@ -12932,7 +12939,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>22</v>
@@ -12953,7 +12960,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>22</v>
@@ -12978,7 +12985,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>22</v>
@@ -13003,7 +13010,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -13022,7 +13029,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>22</v>
@@ -13047,7 +13054,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>22</v>
@@ -13070,7 +13077,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>22</v>
@@ -13093,7 +13100,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>22</v>
@@ -13116,7 +13123,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>22</v>
@@ -13139,7 +13146,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>22</v>
@@ -13162,7 +13169,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>22</v>
@@ -13185,7 +13192,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>22</v>
@@ -13208,7 +13215,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>22</v>
@@ -13231,7 +13238,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -13250,7 +13257,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>22</v>
@@ -13275,7 +13282,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>22</v>
@@ -13298,7 +13305,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>22</v>
@@ -13321,7 +13328,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>22</v>
@@ -13344,7 +13351,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>22</v>
@@ -13367,7 +13374,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>22</v>
@@ -13390,7 +13397,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>22</v>
@@ -13413,7 +13420,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>22</v>
@@ -13436,7 +13443,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>22</v>
@@ -13459,7 +13466,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -13478,7 +13485,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>22</v>
@@ -13499,7 +13506,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>22</v>
@@ -13522,7 +13529,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>22</v>
@@ -13545,7 +13552,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>22</v>
@@ -13568,7 +13575,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>22</v>
@@ -13591,7 +13598,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>22</v>
@@ -13614,7 +13621,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>22</v>
@@ -13637,7 +13644,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>22</v>
@@ -13660,7 +13667,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>22</v>
@@ -13683,7 +13690,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>22</v>
@@ -13706,7 +13713,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>22</v>
@@ -13729,7 +13736,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>22</v>
@@ -13752,7 +13759,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>22</v>
@@ -13775,7 +13782,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>22</v>
@@ -13798,7 +13805,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>22</v>
@@ -13821,7 +13828,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>22</v>
@@ -13844,7 +13851,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -13863,7 +13870,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>22</v>
@@ -13884,7 +13891,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>22</v>
@@ -13907,7 +13914,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>22</v>
@@ -13930,7 +13937,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>22</v>
@@ -13953,7 +13960,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>22</v>
@@ -13976,7 +13983,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>22</v>
@@ -13999,7 +14006,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>22</v>
@@ -14022,7 +14029,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>22</v>
@@ -14045,7 +14052,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>22</v>
@@ -14068,7 +14075,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>22</v>
@@ -14091,7 +14098,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>22</v>
@@ -14114,7 +14121,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>22</v>
@@ -14137,7 +14144,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>22</v>
@@ -14160,7 +14167,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>22</v>
@@ -14183,7 +14190,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>22</v>
@@ -14206,7 +14213,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>22</v>
@@ -14229,7 +14236,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -14248,7 +14255,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>22</v>
@@ -14273,7 +14280,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>22</v>
@@ -14296,7 +14303,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>22</v>
@@ -14319,7 +14326,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>22</v>
@@ -14342,7 +14349,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>22</v>
@@ -14365,7 +14372,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -14384,7 +14391,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>22</v>
@@ -14409,7 +14416,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>22</v>
@@ -14432,7 +14439,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -14451,7 +14458,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -14470,7 +14477,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -14489,7 +14496,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>22</v>
@@ -14510,7 +14517,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>22</v>
@@ -14533,7 +14540,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>22</v>
@@ -14556,7 +14563,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>22</v>
@@ -14579,7 +14586,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>22</v>
@@ -14602,7 +14609,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>22</v>
@@ -14625,7 +14632,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>22</v>
@@ -14648,7 +14655,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>22</v>
@@ -14671,7 +14678,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>22</v>
@@ -14694,7 +14701,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>22</v>
@@ -14717,7 +14724,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>22</v>
@@ -14740,7 +14747,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -14759,7 +14766,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>22</v>
@@ -14782,7 +14789,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -14801,7 +14808,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>22</v>
@@ -14826,7 +14833,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>22</v>
@@ -14849,7 +14856,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>22</v>
@@ -14872,7 +14879,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>22</v>
@@ -14895,7 +14902,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>22</v>
@@ -14918,7 +14925,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>22</v>
@@ -14941,7 +14948,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>22</v>
@@ -14964,7 +14971,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>22</v>
@@ -14987,7 +14994,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>22</v>
@@ -15010,7 +15017,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>22</v>
@@ -15033,7 +15040,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>22</v>
@@ -15056,7 +15063,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -15075,7 +15082,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>22</v>
@@ -15098,7 +15105,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -15117,7 +15124,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>22</v>
@@ -15138,7 +15145,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -15157,7 +15164,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>22</v>
@@ -15178,7 +15185,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -15197,7 +15204,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>22</v>
@@ -15218,7 +15225,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -15237,7 +15244,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>22</v>
@@ -15260,7 +15267,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -15279,7 +15286,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>22</v>
@@ -15304,7 +15311,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>22</v>
@@ -15327,7 +15334,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>22</v>
@@ -15350,7 +15357,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>22</v>
@@ -15373,7 +15380,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>22</v>
@@ -15396,7 +15403,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>22</v>
@@ -15419,7 +15426,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>22</v>
@@ -15442,7 +15449,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>22</v>
@@ -15465,7 +15472,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>22</v>
@@ -15488,7 +15495,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -15507,7 +15514,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>22</v>
@@ -15530,7 +15537,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>22</v>
@@ -15553,7 +15560,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>22</v>
@@ -15576,7 +15583,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>22</v>
@@ -15599,7 +15606,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -15618,7 +15625,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>22</v>
@@ -15641,7 +15648,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>22</v>
@@ -15664,7 +15671,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>22</v>
@@ -15689,7 +15696,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -15708,7 +15715,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>22</v>
@@ -15733,7 +15740,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>22</v>
@@ -15756,7 +15763,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -15775,7 +15782,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>22</v>
@@ -15796,7 +15803,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>22</v>
@@ -15817,7 +15824,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>22</v>
@@ -15840,7 +15847,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -15859,7 +15866,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -15878,7 +15885,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>22</v>
@@ -15903,7 +15910,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>22</v>
@@ -15928,7 +15935,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -15942,7 +15949,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
         <v>22</v>
       </c>
@@ -15965,7 +15972,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
         <v>22</v>
       </c>
@@ -15985,7 +15992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B331" t="s">
         <v>22</v>
       </c>
@@ -16005,7 +16012,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B332" t="s">
         <v>22</v>
       </c>
@@ -16025,7 +16032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B333" t="s">
         <v>22</v>
       </c>
@@ -16042,7 +16049,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B334" t="s">
         <v>22</v>
       </c>
@@ -16065,7 +16072,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B335" t="s">
         <v>22</v>
       </c>
@@ -16088,7 +16095,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -16102,7 +16109,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
         <v>22</v>
       </c>
@@ -16125,7 +16132,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B338" t="s">
         <v>22</v>
       </c>
@@ -16148,7 +16155,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B339" t="s">
         <v>22</v>
       </c>
@@ -16168,7 +16175,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
         <v>22</v>
       </c>
@@ -16188,7 +16195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
         <v>22</v>
       </c>
@@ -16205,7 +16212,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -16231,7 +16238,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>22</v>
@@ -16260,7 +16267,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>22</v>
@@ -16299,7 +16306,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -16313,7 +16320,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
         <v>22</v>
       </c>
@@ -16333,7 +16340,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -16347,7 +16354,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
         <v>22</v>
       </c>
@@ -16367,7 +16374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B349" t="s">
         <v>22</v>
       </c>
@@ -16387,7 +16394,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
         <v>22</v>
       </c>
@@ -16407,7 +16414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B351" t="s">
         <v>22</v>
       </c>
@@ -16427,7 +16434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B352" t="s">
         <v>22</v>
       </c>
@@ -16447,7 +16454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B353" t="s">
         <v>22</v>
       </c>
@@ -16467,7 +16474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B354" t="s">
         <v>22</v>
       </c>
@@ -16487,7 +16494,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B355" t="s">
         <v>22</v>
       </c>
@@ -16507,7 +16514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B356" t="s">
         <v>22</v>
       </c>
@@ -16527,7 +16534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -16541,7 +16548,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B358" t="s">
         <v>22</v>
       </c>
@@ -16561,7 +16568,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B359" t="s">
         <v>22</v>
       </c>
@@ -16581,7 +16588,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -16597,7 +16604,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B361" t="s">
         <v>22</v>
       </c>
@@ -16623,7 +16630,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>23</v>
@@ -16664,7 +16671,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -16678,7 +16685,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B364" t="s">
         <v>22</v>
       </c>
@@ -16698,7 +16705,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -16712,7 +16719,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B366" t="s">
         <v>22</v>
       </c>
@@ -16751,17 +16758,17 @@
       <selection activeCell="A2" sqref="A2:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" customWidth="1"/>
-    <col min="17" max="17" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
+    <col min="17" max="17" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>444</v>
       </c>
@@ -16772,77 +16779,77 @@
         <v>442</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>448</v>
       </c>
       <c r="C2" s="33" t="s">
+        <v>610</v>
+      </c>
+      <c r="D2" s="33" t="s">
         <v>611</v>
       </c>
-      <c r="D2" s="33" t="s">
+    </row>
+    <row r="3" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="33" t="s">
         <v>612</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
-        <v>613</v>
       </c>
       <c r="B3" s="33" t="s">
         <v>449</v>
       </c>
       <c r="C3" s="33" t="s">
+        <v>613</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="33" t="s">
         <v>614</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
-        <v>615</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>450</v>
       </c>
       <c r="C4" s="33" t="s">
+        <v>615</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="33" t="s">
         <v>616</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
-        <v>617</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>448</v>
       </c>
       <c r="C5" s="33" t="s">
+        <v>617</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
         <v>618</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
-        <v>619</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>449</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>443</v>
       </c>
@@ -16850,55 +16857,55 @@
         <v>450</v>
       </c>
       <c r="C7" s="33" t="s">
+        <v>620</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33" t="s">
         <v>621</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
-        <v>622</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>450</v>
       </c>
       <c r="C8" s="33" t="s">
+        <v>622</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="33" t="s">
         <v>623</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
-        <v>624</v>
       </c>
       <c r="B9" s="33" t="s">
         <v>451</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C11" s="18" t="s">
+        <v>572</v>
+      </c>
+      <c r="E11" t="s">
         <v>573</v>
       </c>
-      <c r="E11" t="s">
-        <v>574</v>
-      </c>
       <c r="G11" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>460</v>
       </c>
@@ -16906,13 +16913,13 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G12" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>458</v>
       </c>
@@ -16923,45 +16930,45 @@
         <v>560</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>566</v>
+      </c>
+      <c r="C16" t="s">
         <v>567</v>
-      </c>
-      <c r="C16" t="s">
-        <v>568</v>
       </c>
       <c r="F16" t="s">
         <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L16" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="O16" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="R16" s="33" t="s">
+        <v>570</v>
+      </c>
+      <c r="U16" s="33" t="s">
         <v>571</v>
       </c>
-      <c r="U16" s="33" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F17" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G17" t="s">
         <v>460</v>
       </c>
       <c r="H17" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>554</v>
@@ -16970,16 +16977,16 @@
         <v>0.01</v>
       </c>
       <c r="K17" s="34" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M17">
         <v>30</v>
       </c>
       <c r="N17" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O17" t="s">
         <v>4</v>
@@ -16988,10 +16995,10 @@
         <v>30</v>
       </c>
       <c r="Q17" s="33" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -17002,7 +17009,7 @@
         <v>30</v>
       </c>
       <c r="H18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>559</v>
@@ -17011,94 +17018,94 @@
         <v>0.01</v>
       </c>
       <c r="K18" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L18" s="34" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M18">
         <v>5</v>
       </c>
       <c r="N18" s="33" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="O18" s="34" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="P18">
         <v>3</v>
       </c>
       <c r="Q18" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>558</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J19" s="32">
         <v>45036000000000</v>
       </c>
       <c r="K19" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M19">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O19" s="34" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="P19">
         <v>0.85</v>
       </c>
       <c r="Q19" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J20">
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L20" t="s">
+        <v>599</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
         <v>600</v>
       </c>
-      <c r="M20">
-        <v>2</v>
-      </c>
-      <c r="N20" t="s">
-        <v>601</v>
-      </c>
       <c r="O20" s="34" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P20">
         <v>2</v>
       </c>
       <c r="Q20" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>555</v>
@@ -17107,27 +17114,27 @@
         <v>556</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M21" s="32">
         <v>0.01</v>
       </c>
       <c r="N21" s="34" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O21" s="34" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="P21">
         <v>2</v>
       </c>
       <c r="Q21" s="33" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>557</v>
@@ -17136,7 +17143,7 @@
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>554</v>
@@ -17145,21 +17152,21 @@
         <v>0.01</v>
       </c>
       <c r="N22" s="34" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="O22" s="34" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P22">
         <v>0.8</v>
       </c>
       <c r="Q22" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>559</v>
@@ -17168,7 +17175,7 @@
         <v>0.01</v>
       </c>
       <c r="N23" s="33" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="O23" s="34" t="s">
         <v>555</v>
@@ -17177,15 +17184,15 @@
         <v>556</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L24" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M24" s="32">
         <v>45036000000000</v>
       </c>
       <c r="N24" s="33" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="O24" s="34" t="s">
         <v>557</v>
@@ -17194,21 +17201,21 @@
         <v>2</v>
       </c>
       <c r="Q24" s="33" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L25" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M25" s="33">
         <v>100</v>
       </c>
       <c r="N25" s="33" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L26" s="1" t="s">
         <v>555</v>
       </c>
@@ -17216,7 +17223,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L27" s="1" t="s">
         <v>557</v>
       </c>
@@ -17224,7 +17231,7 @@
         <v>2</v>
       </c>
       <c r="N27" s="33" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
   </sheetData>

--- a/projects/training_lhs2.xlsx
+++ b/projects/training_lhs2.xlsx
@@ -2173,10 +2173,10 @@
     <t>Office Sampling 2</t>
   </si>
   <si>
-    <t>1.6.1-rc1</t>
-  </si>
-  <si>
-    <t>0.2.2</t>
+    <t>0.2.3</t>
+  </si>
+  <si>
+    <t>1.6.1</t>
   </si>
 </sst>
 </file>
@@ -5584,7 +5584,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5620,7 +5620,7 @@
         <v>439</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>440</v>
@@ -5642,7 +5642,7 @@
         <v>479</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>636</v>

--- a/projects/training_lhs2.xlsx
+++ b/projects/training_lhs2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="0" windowWidth="2976" windowHeight="9108" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="27640" tabRatio="562" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -17,21 +17,21 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!$A$2:$G$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$AA$13</definedName>
-    <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
-    <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
-    <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
-    <definedName name="nsga">Lookups!$O$18:$P$24</definedName>
-    <definedName name="nsga_nrel">Lookups!$O$18:$P$24</definedName>
-    <definedName name="optim">Lookups!$I$17:$J$22</definedName>
-    <definedName name="rgenoud">Lookups!$L$17:$M$27</definedName>
-    <definedName name="samplemethod">Lookups!$A$12:$A$14</definedName>
-    <definedName name="SensitivityType">Lookups!$A$12:$A$13</definedName>
-    <definedName name="sentivity">Lookups!$A$12:$A$13</definedName>
-    <definedName name="simulate_data_point">Lookups!$G$12</definedName>
-    <definedName name="TrueFalse">Lookups!$C$12:$C$13</definedName>
-    <definedName name="Workflow">Lookups!$E$12:$E$13</definedName>
+    <definedName name="AnalysisType">Lookups!$A$27:$A$33</definedName>
+    <definedName name="instance_defs">Lookups!$A$11:$D$18</definedName>
+    <definedName name="instance_types">Lookups!$A$11:$A$18</definedName>
+    <definedName name="nsga">Lookups!$O$28:$P$34</definedName>
+    <definedName name="nsga_nrel">Lookups!$O$28:$P$34</definedName>
+    <definedName name="optim">Lookups!$I$27:$J$32</definedName>
+    <definedName name="rgenoud">Lookups!$L$27:$M$37</definedName>
+    <definedName name="samplemethod">Lookups!$A$22:$A$24</definedName>
+    <definedName name="SensitivityType">Lookups!$A$22:$A$23</definedName>
+    <definedName name="sentivity">Lookups!$A$22:$A$23</definedName>
+    <definedName name="simulate_data_point">Lookups!$G$22</definedName>
+    <definedName name="TrueFalse">Lookups!$C$22:$C$23</definedName>
+    <definedName name="Workflow">Lookups!$E$22:$E$23</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="747">
   <si>
     <t>type</t>
   </si>
@@ -2173,10 +2173,115 @@
     <t>Office Sampling 2</t>
   </si>
   <si>
-    <t>0.2.3</t>
-  </si>
-  <si>
-    <t>1.6.1</t>
+    <t>0.3.3</t>
+  </si>
+  <si>
+    <t>1.8.0-pre5</t>
+  </si>
+  <si>
+    <t>m3.medium</t>
+  </si>
+  <si>
+    <t>1 Cores</t>
+  </si>
+  <si>
+    <t>$0.07/hour</t>
+  </si>
+  <si>
+    <t>4 GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Use only for cluster configuration testing</t>
+  </si>
+  <si>
+    <t>32 GB</t>
+  </si>
+  <si>
+    <t>40 GB</t>
+  </si>
+  <si>
+    <t>80 GB</t>
+  </si>
+  <si>
+    <t>16 GB</t>
+  </si>
+  <si>
+    <t>160 GB</t>
+  </si>
+  <si>
+    <t>32 Cores</t>
+  </si>
+  <si>
+    <t>320 GB</t>
+  </si>
+  <si>
+    <t>r3.large</t>
+  </si>
+  <si>
+    <t>$0.18/hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+  </si>
+  <si>
+    <t>r3.xlarge</t>
+  </si>
+  <si>
+    <t>$0.35/hour</t>
+  </si>
+  <si>
+    <t>r3.2xlarge</t>
+  </si>
+  <si>
+    <t>$0.7/hour</t>
+  </si>
+  <si>
+    <t>r3.4xlarge</t>
+  </si>
+  <si>
+    <t>$1.4/hour</t>
+  </si>
+  <si>
+    <t>r3.8xlarge</t>
+  </si>
+  <si>
+    <t>$2.8/hour</t>
+  </si>
+  <si>
+    <t>t1.micro</t>
+  </si>
+  <si>
+    <t>$0.02/hour</t>
+  </si>
+  <si>
+    <t>0 GB</t>
+  </si>
+  <si>
+    <t>m1.small</t>
+  </si>
+  <si>
+    <t>$0.04/hour</t>
+  </si>
+  <si>
+    <t>m2.2xlarge</t>
+  </si>
+  <si>
+    <t>$0.49/hour</t>
+  </si>
+  <si>
+    <t>850 GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Recommended for Server if large analysis because of storage</t>
+  </si>
+  <si>
+    <t>m2.4xlarge</t>
+  </si>
+  <si>
+    <t>$0.98/hour</t>
+  </si>
+  <si>
+    <t>840 GB</t>
   </si>
 </sst>
 </file>
@@ -2314,8 +2419,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1421">
+  <cellStyleXfs count="1425">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3827,7 +3936,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1421">
+  <cellStyles count="1425">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4538,6 +4647,8 @@
     <cellStyle name="Followed Hyperlink" xfId="1416" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1418" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1424" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5248,6 +5359,8 @@
     <cellStyle name="Hyperlink" xfId="1415" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1417" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1423" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5553,17 +5666,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -5583,21 +5696,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="58.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="19"/>
       <c r="B1" s="31"/>
       <c r="C1" s="19"/>
@@ -5606,7 +5719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="12" customFormat="1">
       <c r="A2" s="11" t="s">
         <v>438</v>
       </c>
@@ -5615,7 +5728,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>439</v>
       </c>
@@ -5626,7 +5739,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.95" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4" s="1" t="s">
         <v>462</v>
       </c>
@@ -5637,7 +5750,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="56">
       <c r="A5" s="1" t="s">
         <v>479</v>
       </c>
@@ -5648,7 +5761,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="46.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>480</v>
       </c>
@@ -5659,45 +5772,45 @@
         <v>482</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.95" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>445</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>609</v>
       </c>
-      <c r="C7" s="38" t="str">
+      <c r="C7" s="38" t="e">
         <f>VLOOKUP($B7,instance_defs,2,FALSE)&amp;VLOOKUP($B7,instance_defs,4,FALSE)</f>
-        <v>2 Cores - Recommended for Server</v>
-      </c>
-      <c r="D7" s="38" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D7" s="38" t="e">
         <f>VLOOKUP($B7,instance_defs,3,FALSE)</f>
-        <v>$0.14/hour</v>
+        <v>#N/A</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.95" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="28">
       <c r="A8" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B8" s="28" t="s">
         <v>443</v>
       </c>
-      <c r="C8" s="38" t="str">
+      <c r="C8" s="38" t="e">
         <f>VLOOKUP($B8,instance_defs,2,FALSE)&amp;VLOOKUP($B8,instance_defs,4,FALSE)</f>
-        <v>8 Cores - Worker Only - Recommended for Worker</v>
-      </c>
-      <c r="D8" s="38" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D8" s="38" t="e">
         <f>VLOOKUP($B8,instance_defs,3,FALSE)</f>
-        <v>$0.42/hour</v>
+        <v>#N/A</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>464</v>
       </c>
@@ -5710,7 +5823,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="12" customFormat="1">
       <c r="A11" s="11" t="s">
         <v>29</v>
       </c>
@@ -5719,7 +5832,7 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -5730,7 +5843,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -5741,7 +5854,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -5749,7 +5862,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>472</v>
       </c>
@@ -5760,7 +5873,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.95" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>473</v>
       </c>
@@ -5771,7 +5884,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>474</v>
       </c>
@@ -5782,7 +5895,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>476</v>
       </c>
@@ -5793,7 +5906,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A20" s="11" t="s">
         <v>28</v>
       </c>
@@ -5806,7 +5919,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>457</v>
       </c>
@@ -5814,11 +5927,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="34" customFormat="1">
       <c r="B22" s="29"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A23" s="11" t="s">
         <v>454</v>
       </c>
@@ -5835,181 +5948,181 @@
         <v>461</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="34" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,1,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$26,1,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$27:$Z$36,1,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-2))=0,"",INDEX(Lookups!$C$27:$Z$36,1,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-2))</f>
         <v>Sample Method</v>
       </c>
       <c r="B24" s="29" t="str">
-        <f>IF(D24&lt;&gt;"",D24,IF(LEN(INDEX(Lookups!$C$17:$Z$26,1,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-1))=0,"",INDEX(Lookups!$C$17:$Z$26,1,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-1)))</f>
+        <f>IF(D24&lt;&gt;"",D24,IF(LEN(INDEX(Lookups!$C$27:$Z$36,1,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-1))=0,"",INDEX(Lookups!$C$27:$Z$36,1,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-1)))</f>
         <v>all_variables</v>
       </c>
       <c r="C24" s="39" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,1,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)))=0,"",INDEX(Lookups!$C$17:$Z$26,1,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$27:$Z$36,1,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)))=0,"",INDEX(Lookups!$C$27:$Z$36,1,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)))</f>
         <v>individual_variables / all_variables</v>
       </c>
       <c r="D24" s="40" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="42">
       <c r="A25" s="34" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,2,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$26,2,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$27:$Z$36,2,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-2))=0,"",INDEX(Lookups!$C$27:$Z$36,2,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-2))</f>
         <v>Number of Samples</v>
       </c>
       <c r="B25" s="29">
-        <f>IF(D25&lt;&gt;"",D25,IF(LEN(INDEX(Lookups!$C$17:$Z$26,2,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-1))=0,"",INDEX(Lookups!$C$17:$Z$26,2,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-1)))</f>
+        <f>IF(D25&lt;&gt;"",D25,IF(LEN(INDEX(Lookups!$C$27:$Z$36,2,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-1))=0,"",INDEX(Lookups!$C$27:$Z$36,2,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-1)))</f>
         <v>60</v>
       </c>
       <c r="C25" s="39" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,2,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)))=0,"",INDEX(Lookups!$C$17:$Z$26,2,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$27:$Z$36,2,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)))=0,"",INDEX(Lookups!$C$27:$Z$36,2,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)))</f>
         <v>positive integer (if individual, total simulations is this times each variable)</v>
       </c>
       <c r="D25" s="40">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="34" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,3,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$26,3,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$27:$Z$36,3,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-2))=0,"",INDEX(Lookups!$C$27:$Z$36,3,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-2))</f>
         <v/>
       </c>
       <c r="B26" s="29" t="str">
-        <f>IF(D26&lt;&gt;"",D26,IF(LEN(INDEX(Lookups!$C$17:$Z$26,3,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-1))=0,"",INDEX(Lookups!$C$17:$Z$26,3,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-1)))</f>
+        <f>IF(D26&lt;&gt;"",D26,IF(LEN(INDEX(Lookups!$C$27:$Z$36,3,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-1))=0,"",INDEX(Lookups!$C$27:$Z$36,3,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-1)))</f>
         <v/>
       </c>
       <c r="C26" s="39" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,3,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)))=0,"",INDEX(Lookups!$C$17:$Z$26,3,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$27:$Z$36,3,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)))=0,"",INDEX(Lookups!$C$27:$Z$36,3,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)))</f>
         <v/>
       </c>
       <c r="D26" s="40"/>
     </row>
-    <row r="27" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="34" customFormat="1">
       <c r="A27" s="34" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,4,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$26,4,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$27:$Z$36,4,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-2))=0,"",INDEX(Lookups!$C$27:$Z$36,4,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-2))</f>
         <v/>
       </c>
       <c r="B27" s="29" t="str">
-        <f>IF(D27&lt;&gt;"",D27,IF(LEN(INDEX(Lookups!$C$17:$Z$26,4,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-1))=0,"",INDEX(Lookups!$C$17:$Z$26,4,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-1)))</f>
+        <f>IF(D27&lt;&gt;"",D27,IF(LEN(INDEX(Lookups!$C$27:$Z$36,4,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-1))=0,"",INDEX(Lookups!$C$27:$Z$36,4,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-1)))</f>
         <v/>
       </c>
       <c r="C27" s="39" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,4,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)))=0,"",INDEX(Lookups!$C$17:$Z$26,4,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$27:$Z$36,4,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)))=0,"",INDEX(Lookups!$C$27:$Z$36,4,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)))</f>
         <v/>
       </c>
       <c r="D27" s="40"/>
     </row>
-    <row r="28" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="34" customFormat="1">
       <c r="A28" s="34" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,5,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$26,5,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$27:$Z$36,5,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-2))=0,"",INDEX(Lookups!$C$27:$Z$36,5,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-2))</f>
         <v/>
       </c>
       <c r="B28" s="29" t="str">
-        <f>IF(D28&lt;&gt;"",D28,IF(LEN(INDEX(Lookups!$C$17:$Z$26,5,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-1))=0,"",INDEX(Lookups!$C$17:$Z$26,5,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-1)))</f>
+        <f>IF(D28&lt;&gt;"",D28,IF(LEN(INDEX(Lookups!$C$27:$Z$36,5,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-1))=0,"",INDEX(Lookups!$C$27:$Z$36,5,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-1)))</f>
         <v/>
       </c>
       <c r="C28" s="39" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,5,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)))=0,"",INDEX(Lookups!$C$17:$Z$26,5,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$27:$Z$36,5,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)))=0,"",INDEX(Lookups!$C$27:$Z$36,5,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)))</f>
         <v/>
       </c>
       <c r="D28" s="40"/>
     </row>
-    <row r="29" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="34" customFormat="1">
       <c r="A29" s="34" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,6,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$26,6,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$27:$Z$36,6,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-2))=0,"",INDEX(Lookups!$C$27:$Z$36,6,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-2))</f>
         <v/>
       </c>
       <c r="B29" s="29" t="str">
-        <f>IF(D29&lt;&gt;"",D29,IF(LEN(INDEX(Lookups!$C$17:$Z$26,6,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-1))=0,"",INDEX(Lookups!$C$17:$Z$26,6,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-1)))</f>
+        <f>IF(D29&lt;&gt;"",D29,IF(LEN(INDEX(Lookups!$C$27:$Z$36,6,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-1))=0,"",INDEX(Lookups!$C$27:$Z$36,6,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-1)))</f>
         <v/>
       </c>
       <c r="C29" s="39" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,6,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)))=0,"",INDEX(Lookups!$C$17:$Z$26,6,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$27:$Z$36,6,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)))=0,"",INDEX(Lookups!$C$27:$Z$36,6,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)))</f>
         <v/>
       </c>
       <c r="D29" s="40"/>
     </row>
-    <row r="30" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="34" customFormat="1">
       <c r="A30" s="34" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,7,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$26,7,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$27:$Z$36,7,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-2))=0,"",INDEX(Lookups!$C$27:$Z$36,7,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-2))</f>
         <v/>
       </c>
       <c r="B30" s="29" t="str">
-        <f>IF(D30&lt;&gt;"",D30,IF(LEN(INDEX(Lookups!$C$17:$Z$26,7,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-1))=0,"",INDEX(Lookups!$C$17:$Z$26,7,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-1)))</f>
+        <f>IF(D30&lt;&gt;"",D30,IF(LEN(INDEX(Lookups!$C$27:$Z$36,7,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-1))=0,"",INDEX(Lookups!$C$27:$Z$36,7,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-1)))</f>
         <v/>
       </c>
       <c r="C30" s="39" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,7,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)))=0,"",INDEX(Lookups!$C$17:$Z$26,7,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$27:$Z$36,7,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)))=0,"",INDEX(Lookups!$C$27:$Z$36,7,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)))</f>
         <v/>
       </c>
       <c r="D30" s="40"/>
     </row>
-    <row r="31" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="34" customFormat="1">
       <c r="A31" s="34" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,8,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$26,8,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$27:$Z$36,8,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-2))=0,"",INDEX(Lookups!$C$27:$Z$36,8,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-2))</f>
         <v/>
       </c>
       <c r="B31" s="29" t="str">
-        <f>IF(D31&lt;&gt;"",D31,IF(LEN(INDEX(Lookups!$C$17:$Z$26,8,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-1))=0,"",INDEX(Lookups!$C$17:$Z$26,8,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-1)))</f>
+        <f>IF(D31&lt;&gt;"",D31,IF(LEN(INDEX(Lookups!$C$27:$Z$36,8,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-1))=0,"",INDEX(Lookups!$C$27:$Z$36,8,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-1)))</f>
         <v/>
       </c>
       <c r="C31" s="39" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,8,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)))=0,"",INDEX(Lookups!$C$17:$Z$26,8,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$27:$Z$36,8,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)))=0,"",INDEX(Lookups!$C$27:$Z$36,8,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)))</f>
         <v/>
       </c>
       <c r="D31" s="40"/>
     </row>
-    <row r="32" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="34" customFormat="1">
       <c r="A32" s="34" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,9,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$26,9,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$27:$Z$36,9,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-2))=0,"",INDEX(Lookups!$C$27:$Z$36,9,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-2))</f>
         <v/>
       </c>
       <c r="B32" s="29" t="str">
-        <f>IF(D32&lt;&gt;"",D32,IF(LEN(INDEX(Lookups!$C$17:$Z$26,9,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-1))=0,"",INDEX(Lookups!$C$17:$Z$26,9,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-1)))</f>
+        <f>IF(D32&lt;&gt;"",D32,IF(LEN(INDEX(Lookups!$C$27:$Z$36,9,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-1))=0,"",INDEX(Lookups!$C$27:$Z$36,9,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-1)))</f>
         <v/>
       </c>
       <c r="C32" s="39" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,9,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)))=0,"",INDEX(Lookups!$C$17:$Z$26,9,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$27:$Z$36,9,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)))=0,"",INDEX(Lookups!$C$27:$Z$36,9,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)))</f>
         <v/>
       </c>
       <c r="D32" s="40"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="34" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,10,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$26,10,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$27:$Z$36,10,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-2))=0,"",INDEX(Lookups!$C$27:$Z$36,10,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-2))</f>
         <v/>
       </c>
       <c r="B33" s="29" t="str">
-        <f>IF(D33&lt;&gt;"",D33,IF(LEN(INDEX(Lookups!$C$17:$Z$26,10,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-1))=0,"",INDEX(Lookups!$C$17:$Z$26,10,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-1)))</f>
+        <f>IF(D33&lt;&gt;"",D33,IF(LEN(INDEX(Lookups!$C$27:$Z$36,10,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-1))=0,"",INDEX(Lookups!$C$27:$Z$36,10,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-1)))</f>
         <v/>
       </c>
       <c r="C33" s="39" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,10,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)))=0,"",INDEX(Lookups!$C$17:$Z$26,10,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$27:$Z$36,10,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)))=0,"",INDEX(Lookups!$C$27:$Z$36,10,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)))</f>
         <v/>
       </c>
       <c r="D33" s="40"/>
     </row>
-    <row r="34" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="34" customFormat="1">
       <c r="A34" s="34" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$17:$Z$27,11,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$27,11,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$27:$Z$37,11,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-2))=0,"",INDEX(Lookups!$C$27:$Z$37,11,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-2))</f>
         <v/>
       </c>
       <c r="B34" s="29" t="str">
-        <f>IF(D34&lt;&gt;"",D34,IF(LEN(INDEX(Lookups!$C$17:$Z$27,11,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-1))=0,"",INDEX(Lookups!$C$17:$Z$27,11,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-1)))</f>
+        <f>IF(D34&lt;&gt;"",D34,IF(LEN(INDEX(Lookups!$C$27:$Z$37,11,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-1))=0,"",INDEX(Lookups!$C$27:$Z$37,11,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)-1)))</f>
         <v/>
       </c>
       <c r="C34" s="39" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$17:$Z$27,11,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)))=0,"",INDEX(Lookups!$C$17:$Z$27,11,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$27:$Z$37,11,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)))=0,"",INDEX(Lookups!$C$27:$Z$37,11,3*MATCH(Setup!$B21,Lookups!$A$27:$A$33,0)))</f>
         <v/>
       </c>
       <c r="D34" s="40"/>
     </row>
-    <row r="35" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="34" customFormat="1">
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A36" s="11" t="s">
         <v>34</v>
       </c>
@@ -6022,7 +6135,7 @@
       <c r="D36" s="11"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="29" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>30</v>
       </c>
@@ -6030,7 +6143,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A39" s="11" t="s">
         <v>31</v>
       </c>
@@ -6047,7 +6160,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="28">
       <c r="A40" s="1" t="s">
         <v>33</v>
       </c>
@@ -6064,7 +6177,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A42" s="11" t="s">
         <v>36</v>
       </c>
@@ -6115,32 +6228,32 @@
       <selection activeCell="A44" activeCellId="5" sqref="A13:XFD13 A21:XFD21 A25:XFD25 A34:XFD34 A39:XFD39 A44:XFD44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="4" customWidth="1"/>
     <col min="10" max="10" width="8.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
     <col min="14" max="15" width="7.6640625" style="1" customWidth="1"/>
-    <col min="16" max="17" width="11.44140625" style="1"/>
+    <col min="16" max="17" width="11.5" style="1"/>
     <col min="18" max="18" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.44140625" style="1"/>
-    <col min="20" max="20" width="46.109375" style="1" customWidth="1"/>
-    <col min="21" max="23" width="11.44140625" style="1"/>
+    <col min="19" max="19" width="11.5" style="1"/>
+    <col min="20" max="20" width="46.1640625" style="1" customWidth="1"/>
+    <col min="21" max="23" width="11.5" style="1"/>
     <col min="24" max="24" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.44140625" style="1"/>
+    <col min="25" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -6176,7 +6289,7 @@
       <c r="Y1" s="43"/>
       <c r="Z1" s="43"/>
     </row>
-    <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -6192,7 +6305,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:26" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -6269,7 +6382,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" s="33" customFormat="1">
       <c r="A4" s="33" t="b">
         <v>1</v>
       </c>
@@ -6286,7 +6399,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" s="33" customFormat="1">
       <c r="B5" s="33" t="s">
         <v>22</v>
       </c>
@@ -6306,7 +6419,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" s="33" customFormat="1">
       <c r="B6" s="33" t="s">
         <v>22</v>
       </c>
@@ -6342,7 +6455,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" s="33" customFormat="1">
       <c r="B7" s="33" t="s">
         <v>22</v>
       </c>
@@ -6362,7 +6475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" s="33" customFormat="1">
       <c r="B8" s="33" t="s">
         <v>22</v>
       </c>
@@ -6382,7 +6495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" s="33" customFormat="1">
       <c r="B9" s="33" t="s">
         <v>22</v>
       </c>
@@ -6402,7 +6515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" s="33" customFormat="1">
       <c r="B10" s="33" t="s">
         <v>22</v>
       </c>
@@ -6422,7 +6535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" s="33" customFormat="1">
       <c r="B11" s="33" t="s">
         <v>22</v>
       </c>
@@ -6442,7 +6555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" s="33" customFormat="1">
       <c r="A12" s="33" t="b">
         <v>1</v>
       </c>
@@ -6459,7 +6572,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="42" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" s="42" customFormat="1">
       <c r="B13" s="42" t="s">
         <v>23</v>
       </c>
@@ -6495,7 +6608,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="14" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" s="33" customFormat="1">
       <c r="B14" s="33" t="s">
         <v>22</v>
       </c>
@@ -6515,7 +6628,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" s="33" customFormat="1">
       <c r="B15" s="33" t="s">
         <v>22</v>
       </c>
@@ -6538,7 +6651,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" s="33" customFormat="1">
       <c r="A16" s="33" t="b">
         <v>1</v>
       </c>
@@ -6555,7 +6668,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" s="33" customFormat="1">
       <c r="B17" s="33" t="s">
         <v>22</v>
       </c>
@@ -6575,7 +6688,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" s="33" customFormat="1">
       <c r="B18" s="33" t="s">
         <v>22</v>
       </c>
@@ -6595,7 +6708,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" s="33" customFormat="1">
       <c r="B19" s="33" t="s">
         <v>22</v>
       </c>
@@ -6618,7 +6731,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" s="33" customFormat="1">
       <c r="A20" s="33" t="b">
         <v>1</v>
       </c>
@@ -6635,7 +6748,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" s="42" customFormat="1">
       <c r="B21" s="42" t="s">
         <v>23</v>
       </c>
@@ -6671,7 +6784,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" s="33" customFormat="1">
       <c r="B22" s="33" t="s">
         <v>22</v>
       </c>
@@ -6691,7 +6804,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" s="33" customFormat="1">
       <c r="B23" s="33" t="s">
         <v>22</v>
       </c>
@@ -6714,7 +6827,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" s="33" customFormat="1">
       <c r="A24" s="33" t="b">
         <v>1</v>
       </c>
@@ -6731,7 +6844,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" s="42" customFormat="1">
       <c r="B25" s="42" t="s">
         <v>23</v>
       </c>
@@ -6767,7 +6880,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" s="33" customFormat="1">
       <c r="B26" s="33" t="s">
         <v>22</v>
       </c>
@@ -6787,7 +6900,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" s="33" customFormat="1">
       <c r="B27" s="33" t="s">
         <v>22</v>
       </c>
@@ -6810,7 +6923,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" s="33" customFormat="1">
       <c r="A28" s="33" t="b">
         <v>1</v>
       </c>
@@ -6827,7 +6940,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" s="33" customFormat="1">
       <c r="B29" s="33" t="s">
         <v>22</v>
       </c>
@@ -6850,7 +6963,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" s="33" customFormat="1">
       <c r="B30" s="33" t="s">
         <v>22</v>
       </c>
@@ -6873,7 +6986,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" s="33" customFormat="1">
       <c r="B31" s="33" t="s">
         <v>22</v>
       </c>
@@ -6896,7 +7009,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" s="33" customFormat="1">
       <c r="B32" s="33" t="s">
         <v>22</v>
       </c>
@@ -6916,7 +7029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" s="33" customFormat="1">
       <c r="A33" s="33" t="b">
         <v>1</v>
       </c>
@@ -6933,7 +7046,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" s="42" customFormat="1">
       <c r="B34" s="42" t="s">
         <v>23</v>
       </c>
@@ -6969,7 +7082,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" s="33" customFormat="1">
       <c r="B35" s="33" t="s">
         <v>22</v>
       </c>
@@ -6992,7 +7105,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" s="33" customFormat="1">
       <c r="B36" s="33" t="s">
         <v>22</v>
       </c>
@@ -7012,7 +7125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" s="33" customFormat="1">
       <c r="B37" s="33" t="s">
         <v>22</v>
       </c>
@@ -7032,7 +7145,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="38" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" s="33" customFormat="1">
       <c r="A38" s="33" t="b">
         <v>1</v>
       </c>
@@ -7049,7 +7162,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" s="42" customFormat="1">
       <c r="B39" s="42" t="s">
         <v>23</v>
       </c>
@@ -7085,7 +7198,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="40" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" s="33" customFormat="1">
       <c r="B40" s="33" t="s">
         <v>22</v>
       </c>
@@ -7108,7 +7221,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" s="33" customFormat="1">
       <c r="B41" s="33" t="s">
         <v>22</v>
       </c>
@@ -7128,7 +7241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" s="33" customFormat="1">
       <c r="B42" s="33" t="s">
         <v>22</v>
       </c>
@@ -7148,7 +7261,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="43" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" s="33" customFormat="1">
       <c r="A43" s="33" t="b">
         <v>1</v>
       </c>
@@ -7165,7 +7278,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" s="42" customFormat="1">
       <c r="B44" s="42" t="s">
         <v>23</v>
       </c>
@@ -7201,7 +7314,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" s="33" customFormat="1">
       <c r="B45" s="33" t="s">
         <v>22</v>
       </c>
@@ -7224,7 +7337,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" s="33" customFormat="1">
       <c r="B46" s="33" t="s">
         <v>22</v>
       </c>
@@ -7244,7 +7357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" s="33" customFormat="1">
       <c r="B47" s="33" t="s">
         <v>22</v>
       </c>
@@ -7264,7 +7377,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" s="33" customFormat="1">
       <c r="A48" s="33" t="b">
         <v>1</v>
       </c>
@@ -7281,7 +7394,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" s="33" customFormat="1">
       <c r="B49" s="33" t="s">
         <v>22</v>
       </c>
@@ -7301,7 +7414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" s="33" customFormat="1">
       <c r="B50" s="33" t="s">
         <v>22</v>
       </c>
@@ -7321,7 +7434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" customFormat="1" ht="15">
       <c r="A51" s="17"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
@@ -7336,7 +7449,7 @@
       <c r="L51" s="17"/>
       <c r="R51" s="1"/>
     </row>
-    <row r="52" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" customFormat="1" ht="15">
       <c r="A52" s="17"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
@@ -7357,7 +7470,7 @@
       <c r="R52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" customFormat="1" ht="15">
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
@@ -7381,7 +7494,7 @@
       <c r="V53" s="25"/>
       <c r="W53" s="25"/>
     </row>
-    <row r="54" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" customFormat="1" ht="15">
       <c r="A54" s="17"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
@@ -7406,7 +7519,7 @@
       <c r="V54" s="25"/>
       <c r="W54" s="25"/>
     </row>
-    <row r="55" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" customFormat="1" ht="15">
       <c r="A55" s="17"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
@@ -7431,7 +7544,7 @@
       <c r="V55" s="25"/>
       <c r="W55" s="25"/>
     </row>
-    <row r="56" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" customFormat="1" ht="15">
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
@@ -7455,7 +7568,7 @@
       <c r="V56" s="25"/>
       <c r="W56" s="25"/>
     </row>
-    <row r="57" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" customFormat="1" ht="15">
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
@@ -7480,7 +7593,7 @@
       <c r="V57" s="25"/>
       <c r="W57" s="25"/>
     </row>
-    <row r="58" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" customFormat="1" ht="15">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
@@ -7505,7 +7618,7 @@
       <c r="V58" s="25"/>
       <c r="W58" s="25"/>
     </row>
-    <row r="59" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" customFormat="1" ht="15">
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
@@ -7529,7 +7642,7 @@
       <c r="V59" s="25"/>
       <c r="W59" s="25"/>
     </row>
-    <row r="60" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" customFormat="1" ht="15">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
@@ -7554,7 +7667,7 @@
       <c r="V60" s="25"/>
       <c r="W60" s="25"/>
     </row>
-    <row r="61" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" customFormat="1" ht="15">
       <c r="A61" s="17"/>
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
@@ -7579,7 +7692,7 @@
       <c r="V61" s="25"/>
       <c r="W61" s="25"/>
     </row>
-    <row r="62" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" customFormat="1" ht="15">
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
@@ -7603,7 +7716,7 @@
       <c r="V62" s="25"/>
       <c r="W62" s="25"/>
     </row>
-    <row r="63" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" ht="15">
       <c r="A63" s="17"/>
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
@@ -7630,7 +7743,7 @@
       <c r="Y63" s="25"/>
       <c r="Z63" s="25"/>
     </row>
-    <row r="64" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" ht="15">
       <c r="A64" s="17"/>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
@@ -7657,7 +7770,7 @@
       <c r="Y64" s="25"/>
       <c r="Z64" s="25"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65" s="33"/>
@@ -7676,7 +7789,7 @@
       <c r="Y65" s="25"/>
       <c r="Z65" s="25"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66" s="33"/>
@@ -7695,7 +7808,7 @@
       <c r="Y66" s="25"/>
       <c r="Z66" s="25"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67" s="33"/>
@@ -7714,7 +7827,7 @@
       <c r="Y67" s="25"/>
       <c r="Z67" s="25"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68" s="33"/>
@@ -7736,7 +7849,7 @@
       <c r="X68" s="25"/>
       <c r="Y68" s="25"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69" s="33"/>
@@ -7754,7 +7867,7 @@
       <c r="X69" s="25"/>
       <c r="Y69" s="25"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70" s="33"/>
@@ -7772,7 +7885,7 @@
       <c r="X70" s="25"/>
       <c r="Y70" s="25"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71" s="33"/>
@@ -7790,7 +7903,7 @@
       <c r="X71" s="25"/>
       <c r="Y71" s="25"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72" s="33"/>
@@ -7808,7 +7921,7 @@
       <c r="X72" s="25"/>
       <c r="Y72" s="25"/>
     </row>
-    <row r="73" spans="1:26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" customFormat="1">
       <c r="C73" s="33"/>
       <c r="K73" s="4"/>
       <c r="L73" s="1"/>
@@ -7823,7 +7936,7 @@
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
     </row>
-    <row r="74" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" customFormat="1" ht="15">
       <c r="C74" s="33"/>
       <c r="K74" s="4"/>
       <c r="N74" s="17"/>
@@ -7835,7 +7948,7 @@
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
     </row>
-    <row r="75" spans="1:26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" customFormat="1">
       <c r="C75" s="33"/>
       <c r="K75" s="4"/>
       <c r="L75" s="1"/>
@@ -7850,7 +7963,7 @@
       <c r="U75" s="1"/>
       <c r="V75" s="1"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76" s="33"/>
@@ -7863,7 +7976,7 @@
       <c r="J76"/>
       <c r="K76" s="4"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77" s="33"/>
@@ -7876,7 +7989,7 @@
       <c r="J77"/>
       <c r="K77" s="4"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78" s="33"/>
@@ -7889,7 +8002,7 @@
       <c r="J78"/>
       <c r="K78" s="4"/>
     </row>
-    <row r="79" spans="1:26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" customFormat="1">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="34"/>
@@ -7910,7 +8023,7 @@
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
     </row>
-    <row r="80" spans="1:26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" customFormat="1">
       <c r="A80" s="1"/>
       <c r="C80" s="33"/>
       <c r="N80" s="1"/>
@@ -7920,7 +8033,7 @@
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
     </row>
-    <row r="81" spans="1:25" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:25" customFormat="1" ht="15">
       <c r="A81" s="17"/>
       <c r="C81" s="33"/>
       <c r="N81" s="1"/>
@@ -7930,46 +8043,46 @@
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
     </row>
-    <row r="82" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:25" customFormat="1">
       <c r="C82" s="33"/>
     </row>
-    <row r="83" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:25" customFormat="1">
       <c r="C83" s="33"/>
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
       <c r="S83" s="1"/>
     </row>
-    <row r="84" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:25" customFormat="1">
       <c r="C84" s="33"/>
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
       <c r="S84" s="1"/>
     </row>
-    <row r="85" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:25" customFormat="1">
       <c r="C85" s="33"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:25" customFormat="1">
       <c r="C86" s="33"/>
       <c r="O86" s="3"/>
       <c r="P86" s="3"/>
       <c r="S86" s="1"/>
     </row>
-    <row r="87" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:25" customFormat="1">
       <c r="C87" s="33"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:25" customFormat="1">
       <c r="C88" s="33"/>
       <c r="O88" s="3"/>
       <c r="P88" s="3"/>
       <c r="S88" s="1"/>
     </row>
-    <row r="89" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:25" customFormat="1">
       <c r="C89" s="33"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:25" customFormat="1">
       <c r="C90" s="33"/>
       <c r="F90" s="1"/>
       <c r="H90" s="1"/>
@@ -7977,7 +8090,7 @@
       <c r="P90" s="3"/>
       <c r="S90" s="1"/>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:25">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91" s="33"/>
@@ -8004,7 +8117,7 @@
       <c r="X91" s="25"/>
       <c r="Y91" s="25"/>
     </row>
-    <row r="92" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:25" customFormat="1">
       <c r="C92" s="33"/>
       <c r="O92" s="3"/>
       <c r="P92" s="3"/>
@@ -8012,7 +8125,7 @@
       <c r="R92" s="25"/>
       <c r="S92" s="25"/>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:25">
       <c r="C93" s="34"/>
       <c r="I93" s="1"/>
       <c r="K93" s="4"/>
@@ -8040,19 +8153,19 @@
       <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.44140625" style="1"/>
+    <col min="8" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="7" t="s">
@@ -8063,7 +8176,7 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>465</v>
       </c>
@@ -8086,7 +8199,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="14" customFormat="1" ht="15">
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
@@ -8100,7 +8213,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="34" customFormat="1">
       <c r="A4" s="33" t="s">
         <v>608</v>
       </c>
@@ -8117,7 +8230,7 @@
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
-    <row r="5" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="34" customFormat="1">
       <c r="A5" s="33" t="s">
         <v>551</v>
       </c>
@@ -8134,7 +8247,7 @@
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
     </row>
-    <row r="6" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="34" customFormat="1">
       <c r="A6" s="33" t="s">
         <v>698</v>
       </c>
@@ -8153,7 +8266,7 @@
       <c r="H6" s="33"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="34" customFormat="1">
       <c r="A7" s="33" t="s">
         <v>700</v>
       </c>
@@ -8172,7 +8285,7 @@
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
     </row>
-    <row r="8" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="34" customFormat="1">
       <c r="A8" s="33" t="s">
         <v>668</v>
       </c>
@@ -8188,7 +8301,7 @@
       <c r="F8" s="32"/>
       <c r="G8" s="33"/>
     </row>
-    <row r="9" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="34" customFormat="1">
       <c r="A9" s="33" t="s">
         <v>670</v>
       </c>
@@ -8204,7 +8317,7 @@
       <c r="F9" s="32"/>
       <c r="G9" s="33"/>
     </row>
-    <row r="10" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="34" customFormat="1">
       <c r="A10" s="33" t="s">
         <v>671</v>
       </c>
@@ -8221,7 +8334,7 @@
       <c r="F10" s="32"/>
       <c r="G10" s="33"/>
     </row>
-    <row r="11" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="34" customFormat="1">
       <c r="A11" s="33" t="s">
         <v>672</v>
       </c>
@@ -8238,7 +8351,7 @@
       <c r="F11" s="32"/>
       <c r="G11" s="33"/>
     </row>
-    <row r="12" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="34" customFormat="1">
       <c r="A12" s="33" t="s">
         <v>673</v>
       </c>
@@ -8255,7 +8368,7 @@
       <c r="F12" s="32"/>
       <c r="G12" s="33"/>
     </row>
-    <row r="13" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="34" customFormat="1">
       <c r="A13" s="33" t="s">
         <v>674</v>
       </c>
@@ -8272,7 +8385,7 @@
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
     </row>
-    <row r="14" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="34" customFormat="1">
       <c r="A14" s="33" t="s">
         <v>675</v>
       </c>
@@ -8289,7 +8402,7 @@
       <c r="F14" s="32"/>
       <c r="G14" s="33"/>
     </row>
-    <row r="15" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="34" customFormat="1">
       <c r="A15" s="33" t="s">
         <v>676</v>
       </c>
@@ -8306,7 +8419,7 @@
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
     </row>
-    <row r="16" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="34" customFormat="1">
       <c r="A16" s="33" t="s">
         <v>677</v>
       </c>
@@ -8323,7 +8436,7 @@
       <c r="F16" s="32"/>
       <c r="G16" s="33"/>
     </row>
-    <row r="17" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="33" customFormat="1">
       <c r="A17" s="33" t="s">
         <v>678</v>
       </c>
@@ -8339,7 +8452,7 @@
       <c r="E17" s="37"/>
       <c r="F17" s="32"/>
     </row>
-    <row r="18" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="33" customFormat="1">
       <c r="A18" s="33" t="s">
         <v>679</v>
       </c>
@@ -8355,7 +8468,7 @@
       <c r="E18" s="37"/>
       <c r="F18" s="32"/>
     </row>
-    <row r="19" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="33" customFormat="1">
       <c r="A19" s="33" t="s">
         <v>680</v>
       </c>
@@ -8371,7 +8484,7 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
     </row>
-    <row r="20" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="33" customFormat="1">
       <c r="A20" s="33" t="s">
         <v>681</v>
       </c>
@@ -8387,7 +8500,7 @@
       <c r="E20" s="37"/>
       <c r="F20" s="32"/>
     </row>
-    <row r="21" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="33" customFormat="1">
       <c r="A21" s="33" t="s">
         <v>682</v>
       </c>
@@ -8403,7 +8516,7 @@
       <c r="E21" s="37"/>
       <c r="F21" s="32"/>
     </row>
-    <row r="22" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="33" customFormat="1">
       <c r="A22" s="33" t="s">
         <v>683</v>
       </c>
@@ -8419,7 +8532,7 @@
       <c r="E22" s="37"/>
       <c r="F22" s="32"/>
     </row>
-    <row r="23" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="34" customFormat="1">
       <c r="A23" s="33" t="s">
         <v>684</v>
       </c>
@@ -8436,7 +8549,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="33"/>
     </row>
-    <row r="24" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="34" customFormat="1">
       <c r="A24" s="33" t="s">
         <v>685</v>
       </c>
@@ -8453,7 +8566,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="33"/>
     </row>
-    <row r="25" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="34" customFormat="1">
       <c r="A25" s="33" t="s">
         <v>686</v>
       </c>
@@ -8469,7 +8582,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="33"/>
     </row>
-    <row r="26" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="34" customFormat="1">
       <c r="A26" s="33" t="s">
         <v>687</v>
       </c>
@@ -8485,7 +8598,7 @@
       <c r="F26" s="32"/>
       <c r="G26" s="33"/>
     </row>
-    <row r="27" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" s="34" customFormat="1">
       <c r="A27" s="33" t="s">
         <v>688</v>
       </c>
@@ -8501,7 +8614,7 @@
       <c r="F27" s="32"/>
       <c r="G27" s="33"/>
     </row>
-    <row r="28" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="34" customFormat="1">
       <c r="A28" s="33" t="s">
         <v>689</v>
       </c>
@@ -8518,7 +8631,7 @@
       <c r="F28" s="32"/>
       <c r="G28" s="33"/>
     </row>
-    <row r="29" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" s="34" customFormat="1">
       <c r="A29" s="33" t="s">
         <v>690</v>
       </c>
@@ -8535,7 +8648,7 @@
       <c r="F29" s="32"/>
       <c r="G29" s="33"/>
     </row>
-    <row r="30" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" s="34" customFormat="1">
       <c r="A30" s="33" t="s">
         <v>691</v>
       </c>
@@ -8552,7 +8665,7 @@
       <c r="F30" s="32"/>
       <c r="G30" s="33"/>
     </row>
-    <row r="31" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" s="34" customFormat="1">
       <c r="A31" s="33" t="s">
         <v>692</v>
       </c>
@@ -8588,19 +8701,19 @@
       <selection sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -8619,7 +8732,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>22</v>
@@ -8640,7 +8753,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>22</v>
@@ -8663,7 +8776,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>22</v>
@@ -8686,7 +8799,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>22</v>
@@ -8709,7 +8822,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>22</v>
@@ -8732,7 +8845,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>22</v>
@@ -8755,7 +8868,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>22</v>
@@ -8778,7 +8891,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>22</v>
@@ -8801,7 +8914,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>22</v>
@@ -8824,7 +8937,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -8843,7 +8956,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>22</v>
@@ -8864,7 +8977,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>22</v>
@@ -8887,7 +9000,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>22</v>
@@ -8910,7 +9023,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>22</v>
@@ -8933,7 +9046,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>22</v>
@@ -8956,7 +9069,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>22</v>
@@ -8979,7 +9092,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>22</v>
@@ -9002,7 +9115,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>22</v>
@@ -9025,7 +9138,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>22</v>
@@ -9048,7 +9161,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -9067,7 +9180,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>22</v>
@@ -9090,7 +9203,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>22</v>
@@ -9113,7 +9226,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>22</v>
@@ -9136,7 +9249,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>22</v>
@@ -9159,7 +9272,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>22</v>
@@ -9182,7 +9295,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>22</v>
@@ -9205,7 +9318,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>22</v>
@@ -9228,7 +9341,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>22</v>
@@ -9251,7 +9364,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>22</v>
@@ -9274,7 +9387,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -9293,7 +9406,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>22</v>
@@ -9314,7 +9427,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>22</v>
@@ -9337,7 +9450,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>22</v>
@@ -9360,7 +9473,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>22</v>
@@ -9383,7 +9496,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>22</v>
@@ -9406,7 +9519,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>22</v>
@@ -9429,7 +9542,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>22</v>
@@ -9452,7 +9565,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>22</v>
@@ -9475,7 +9588,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>22</v>
@@ -9498,7 +9611,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -9517,7 +9630,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>22</v>
@@ -9538,7 +9651,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>22</v>
@@ -9561,7 +9674,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>22</v>
@@ -9584,7 +9697,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>22</v>
@@ -9607,7 +9720,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>22</v>
@@ -9630,7 +9743,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>22</v>
@@ -9653,7 +9766,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>22</v>
@@ -9676,7 +9789,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>22</v>
@@ -9699,7 +9812,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>22</v>
@@ -9722,7 +9835,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -9741,7 +9854,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>22</v>
@@ -9762,7 +9875,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>22</v>
@@ -9785,7 +9898,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>22</v>
@@ -9808,7 +9921,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>22</v>
@@ -9831,7 +9944,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>22</v>
@@ -9854,7 +9967,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>22</v>
@@ -9877,7 +9990,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>22</v>
@@ -9900,7 +10013,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>22</v>
@@ -9923,7 +10036,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>22</v>
@@ -9946,7 +10059,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -9965,7 +10078,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>22</v>
@@ -9986,7 +10099,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>22</v>
@@ -10011,7 +10124,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>22</v>
@@ -10034,7 +10147,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>22</v>
@@ -10057,7 +10170,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>22</v>
@@ -10080,7 +10193,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>22</v>
@@ -10103,7 +10216,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>22</v>
@@ -10126,7 +10239,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>22</v>
@@ -10149,7 +10262,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>22</v>
@@ -10172,7 +10285,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>22</v>
@@ -10195,7 +10308,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -10214,7 +10327,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>22</v>
@@ -10235,7 +10348,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>22</v>
@@ -10258,7 +10371,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>22</v>
@@ -10283,7 +10396,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>22</v>
@@ -10306,7 +10419,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>22</v>
@@ -10329,7 +10442,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>22</v>
@@ -10352,7 +10465,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>22</v>
@@ -10375,7 +10488,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>22</v>
@@ -10398,7 +10511,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>22</v>
@@ -10421,7 +10534,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>22</v>
@@ -10444,7 +10557,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>22</v>
@@ -10467,7 +10580,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>22</v>
@@ -10490,7 +10603,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>22</v>
@@ -10513,7 +10626,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -10532,7 +10645,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>22</v>
@@ -10555,7 +10668,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>22</v>
@@ -10578,7 +10691,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>22</v>
@@ -10601,7 +10714,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>22</v>
@@ -10624,7 +10737,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>22</v>
@@ -10647,7 +10760,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>22</v>
@@ -10670,7 +10783,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>22</v>
@@ -10693,7 +10806,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>22</v>
@@ -10716,7 +10829,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>22</v>
@@ -10739,7 +10852,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>22</v>
@@ -10762,7 +10875,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -10781,7 +10894,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>22</v>
@@ -10806,7 +10919,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -10825,7 +10938,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>22</v>
@@ -10846,7 +10959,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>22</v>
@@ -10871,7 +10984,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -10890,7 +11003,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>22</v>
@@ -10913,7 +11026,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>22</v>
@@ -10938,7 +11051,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>22</v>
@@ -10961,7 +11074,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>22</v>
@@ -10982,7 +11095,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -11001,7 +11114,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>22</v>
@@ -11026,7 +11139,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>22</v>
@@ -11049,7 +11162,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>22</v>
@@ -11072,7 +11185,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>22</v>
@@ -11095,7 +11208,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>22</v>
@@ -11118,7 +11231,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>22</v>
@@ -11141,7 +11254,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>22</v>
@@ -11164,7 +11277,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -11183,7 +11296,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>22</v>
@@ -11206,7 +11319,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>22</v>
@@ -11229,7 +11342,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>22</v>
@@ -11252,7 +11365,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -11271,7 +11384,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>22</v>
@@ -11294,7 +11407,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>22</v>
@@ -11317,7 +11430,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>22</v>
@@ -11340,7 +11453,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>22</v>
@@ -11363,7 +11476,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>22</v>
@@ -11386,7 +11499,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>22</v>
@@ -11409,7 +11522,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -11428,7 +11541,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>22</v>
@@ -11453,7 +11566,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>22</v>
@@ -11476,7 +11589,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>22</v>
@@ -11499,7 +11612,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>22</v>
@@ -11522,7 +11635,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>22</v>
@@ -11545,7 +11658,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>22</v>
@@ -11568,7 +11681,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>22</v>
@@ -11591,7 +11704,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>22</v>
@@ -11614,7 +11727,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>22</v>
@@ -11637,7 +11750,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -11656,7 +11769,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>22</v>
@@ -11681,7 +11794,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>22</v>
@@ -11702,7 +11815,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>22</v>
@@ -11725,7 +11838,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>22</v>
@@ -11748,7 +11861,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>22</v>
@@ -11771,7 +11884,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>22</v>
@@ -11794,7 +11907,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>22</v>
@@ -11817,7 +11930,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>22</v>
@@ -11840,7 +11953,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>22</v>
@@ -11863,7 +11976,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>22</v>
@@ -11886,7 +11999,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>22</v>
@@ -11909,7 +12022,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>22</v>
@@ -11932,7 +12045,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>22</v>
@@ -11955,7 +12068,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>22</v>
@@ -11978,7 +12091,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -11997,7 +12110,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>22</v>
@@ -12020,7 +12133,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -12039,7 +12152,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>22</v>
@@ -12062,7 +12175,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>22</v>
@@ -12085,7 +12198,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -12104,7 +12217,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>22</v>
@@ -12129,7 +12242,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>22</v>
@@ -12152,7 +12265,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>22</v>
@@ -12175,7 +12288,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>22</v>
@@ -12198,7 +12311,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>22</v>
@@ -12221,7 +12334,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>22</v>
@@ -12244,7 +12357,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>22</v>
@@ -12267,7 +12380,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>22</v>
@@ -12290,7 +12403,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>22</v>
@@ -12313,7 +12426,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>22</v>
@@ -12336,7 +12449,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -12355,7 +12468,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>22</v>
@@ -12380,7 +12493,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>22</v>
@@ -12403,7 +12516,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>22</v>
@@ -12426,7 +12539,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>22</v>
@@ -12449,7 +12562,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>22</v>
@@ -12472,7 +12585,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>22</v>
@@ -12495,7 +12608,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>22</v>
@@ -12518,7 +12631,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>22</v>
@@ -12541,7 +12654,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>22</v>
@@ -12564,7 +12677,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>22</v>
@@ -12587,7 +12700,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -12606,7 +12719,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>22</v>
@@ -12629,7 +12742,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>22</v>
@@ -12652,7 +12765,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>22</v>
@@ -12675,7 +12788,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>22</v>
@@ -12698,7 +12811,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -12717,7 +12830,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>22</v>
@@ -12740,7 +12853,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>22</v>
@@ -12763,7 +12876,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>22</v>
@@ -12786,7 +12899,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>22</v>
@@ -12809,7 +12922,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -12828,7 +12941,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>22</v>
@@ -12849,7 +12962,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>22</v>
@@ -12872,7 +12985,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -12891,7 +13004,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>22</v>
@@ -12914,7 +13027,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>22</v>
@@ -12939,7 +13052,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>22</v>
@@ -12960,7 +13073,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>22</v>
@@ -12985,7 +13098,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>22</v>
@@ -13010,7 +13123,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -13029,7 +13142,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>22</v>
@@ -13054,7 +13167,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>22</v>
@@ -13077,7 +13190,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>22</v>
@@ -13100,7 +13213,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>22</v>
@@ -13123,7 +13236,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>22</v>
@@ -13146,7 +13259,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>22</v>
@@ -13169,7 +13282,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>22</v>
@@ -13192,7 +13305,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>22</v>
@@ -13215,7 +13328,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>22</v>
@@ -13238,7 +13351,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -13257,7 +13370,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>22</v>
@@ -13282,7 +13395,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>22</v>
@@ -13305,7 +13418,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>22</v>
@@ -13328,7 +13441,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>22</v>
@@ -13351,7 +13464,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>22</v>
@@ -13374,7 +13487,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>22</v>
@@ -13397,7 +13510,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>22</v>
@@ -13420,7 +13533,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>22</v>
@@ -13443,7 +13556,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>22</v>
@@ -13466,7 +13579,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -13485,7 +13598,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>22</v>
@@ -13506,7 +13619,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>22</v>
@@ -13529,7 +13642,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>22</v>
@@ -13552,7 +13665,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>22</v>
@@ -13575,7 +13688,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>22</v>
@@ -13598,7 +13711,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>22</v>
@@ -13621,7 +13734,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>22</v>
@@ -13644,7 +13757,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>22</v>
@@ -13667,7 +13780,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>22</v>
@@ -13690,7 +13803,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>22</v>
@@ -13713,7 +13826,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>22</v>
@@ -13736,7 +13849,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>22</v>
@@ -13759,7 +13872,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>22</v>
@@ -13782,7 +13895,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>22</v>
@@ -13805,7 +13918,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>22</v>
@@ -13828,7 +13941,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>22</v>
@@ -13851,7 +13964,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -13870,7 +13983,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>22</v>
@@ -13891,7 +14004,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>22</v>
@@ -13914,7 +14027,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>22</v>
@@ -13937,7 +14050,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>22</v>
@@ -13960,7 +14073,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>22</v>
@@ -13983,7 +14096,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>22</v>
@@ -14006,7 +14119,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>22</v>
@@ -14029,7 +14142,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>22</v>
@@ -14052,7 +14165,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>22</v>
@@ -14075,7 +14188,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>22</v>
@@ -14098,7 +14211,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>22</v>
@@ -14121,7 +14234,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>22</v>
@@ -14144,7 +14257,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>22</v>
@@ -14167,7 +14280,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>22</v>
@@ -14190,7 +14303,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>22</v>
@@ -14213,7 +14326,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>22</v>
@@ -14236,7 +14349,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -14255,7 +14368,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>22</v>
@@ -14280,7 +14393,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>22</v>
@@ -14303,7 +14416,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>22</v>
@@ -14326,7 +14439,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>22</v>
@@ -14349,7 +14462,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>22</v>
@@ -14372,7 +14485,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -14391,7 +14504,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>22</v>
@@ -14416,7 +14529,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>22</v>
@@ -14439,7 +14552,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -14458,7 +14571,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -14477,7 +14590,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -14496,7 +14609,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>22</v>
@@ -14517,7 +14630,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>22</v>
@@ -14540,7 +14653,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>22</v>
@@ -14563,7 +14676,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>22</v>
@@ -14586,7 +14699,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>22</v>
@@ -14609,7 +14722,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>22</v>
@@ -14632,7 +14745,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>22</v>
@@ -14655,7 +14768,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>22</v>
@@ -14678,7 +14791,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>22</v>
@@ -14701,7 +14814,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>22</v>
@@ -14724,7 +14837,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>22</v>
@@ -14747,7 +14860,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -14766,7 +14879,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>22</v>
@@ -14789,7 +14902,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -14808,7 +14921,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>22</v>
@@ -14833,7 +14946,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>22</v>
@@ -14856,7 +14969,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>22</v>
@@ -14879,7 +14992,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>22</v>
@@ -14902,7 +15015,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>22</v>
@@ -14925,7 +15038,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>22</v>
@@ -14948,7 +15061,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>22</v>
@@ -14971,7 +15084,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>22</v>
@@ -14994,7 +15107,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>22</v>
@@ -15017,7 +15130,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>22</v>
@@ -15040,7 +15153,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>22</v>
@@ -15063,7 +15176,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -15082,7 +15195,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>22</v>
@@ -15105,7 +15218,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -15124,7 +15237,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>22</v>
@@ -15145,7 +15258,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -15164,7 +15277,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>22</v>
@@ -15185,7 +15298,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -15204,7 +15317,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>22</v>
@@ -15225,7 +15338,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -15244,7 +15357,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>22</v>
@@ -15267,7 +15380,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -15286,7 +15399,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>22</v>
@@ -15311,7 +15424,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>22</v>
@@ -15334,7 +15447,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>22</v>
@@ -15357,7 +15470,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>22</v>
@@ -15380,7 +15493,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>22</v>
@@ -15403,7 +15516,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>22</v>
@@ -15426,7 +15539,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>22</v>
@@ -15449,7 +15562,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>22</v>
@@ -15472,7 +15585,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>22</v>
@@ -15495,7 +15608,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -15514,7 +15627,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>22</v>
@@ -15537,7 +15650,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>22</v>
@@ -15560,7 +15673,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>22</v>
@@ -15583,7 +15696,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>22</v>
@@ -15606,7 +15719,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -15625,7 +15738,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>22</v>
@@ -15648,7 +15761,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>22</v>
@@ -15671,7 +15784,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>22</v>
@@ -15696,7 +15809,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -15715,7 +15828,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>22</v>
@@ -15740,7 +15853,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>22</v>
@@ -15763,7 +15876,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -15782,7 +15895,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>22</v>
@@ -15803,7 +15916,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>22</v>
@@ -15824,7 +15937,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>22</v>
@@ -15847,7 +15960,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -15866,7 +15979,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -15885,7 +15998,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>22</v>
@@ -15910,7 +16023,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>22</v>
@@ -15935,7 +16048,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -15949,7 +16062,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>22</v>
       </c>
@@ -15972,7 +16085,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
         <v>22</v>
       </c>
@@ -15992,7 +16105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>22</v>
       </c>
@@ -16012,7 +16125,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>22</v>
       </c>
@@ -16032,7 +16145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>22</v>
       </c>
@@ -16049,7 +16162,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>22</v>
       </c>
@@ -16072,7 +16185,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
         <v>22</v>
       </c>
@@ -16095,7 +16208,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -16109,7 +16222,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16">
       <c r="B337" t="s">
         <v>22</v>
       </c>
@@ -16132,7 +16245,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16">
       <c r="B338" t="s">
         <v>22</v>
       </c>
@@ -16155,7 +16268,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16">
       <c r="B339" t="s">
         <v>22</v>
       </c>
@@ -16175,7 +16288,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16">
       <c r="B340" t="s">
         <v>22</v>
       </c>
@@ -16195,7 +16308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16">
       <c r="B341" t="s">
         <v>22</v>
       </c>
@@ -16212,7 +16325,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -16238,7 +16351,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>22</v>
@@ -16267,7 +16380,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>22</v>
@@ -16306,7 +16419,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -16320,7 +16433,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16">
       <c r="B346" t="s">
         <v>22</v>
       </c>
@@ -16340,7 +16453,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -16354,7 +16467,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16">
       <c r="B348" t="s">
         <v>22</v>
       </c>
@@ -16374,7 +16487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16">
       <c r="B349" t="s">
         <v>22</v>
       </c>
@@ -16394,7 +16507,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16">
       <c r="B350" t="s">
         <v>22</v>
       </c>
@@ -16414,7 +16527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16">
       <c r="B351" t="s">
         <v>22</v>
       </c>
@@ -16434,7 +16547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16">
       <c r="B352" t="s">
         <v>22</v>
       </c>
@@ -16454,7 +16567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18">
       <c r="B353" t="s">
         <v>22</v>
       </c>
@@ -16474,7 +16587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18">
       <c r="B354" t="s">
         <v>22</v>
       </c>
@@ -16494,7 +16607,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18">
       <c r="B355" t="s">
         <v>22</v>
       </c>
@@ -16514,7 +16627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18">
       <c r="B356" t="s">
         <v>22</v>
       </c>
@@ -16534,7 +16647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -16548,7 +16661,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18">
       <c r="B358" t="s">
         <v>22</v>
       </c>
@@ -16568,7 +16681,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18">
       <c r="B359" t="s">
         <v>22</v>
       </c>
@@ -16588,7 +16701,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" s="1" customFormat="1">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -16604,7 +16717,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" s="1" customFormat="1">
       <c r="B361" t="s">
         <v>22</v>
       </c>
@@ -16630,7 +16743,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>23</v>
@@ -16671,7 +16784,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -16685,7 +16798,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18">
       <c r="B364" t="s">
         <v>22</v>
       </c>
@@ -16705,7 +16818,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -16719,7 +16832,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18">
       <c r="B366" t="s">
         <v>22</v>
       </c>
@@ -16752,23 +16865,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U27"/>
+  <dimension ref="A1:U61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
+    <col min="17" max="17" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>444</v>
       </c>
@@ -16779,459 +16892,960 @@
         <v>442</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="33" customFormat="1">
       <c r="A2" s="33" t="s">
+        <v>712</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>713</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>714</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>715</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="33" customFormat="1">
+      <c r="A3" s="33" t="s">
         <v>609</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B3" s="33" t="s">
         <v>448</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C3" s="33" t="s">
         <v>610</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D3" s="33" t="s">
+        <v>717</v>
+      </c>
+      <c r="E3" s="33" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+    <row r="4" spans="1:5" s="33" customFormat="1">
+      <c r="A4" s="33" t="s">
         <v>612</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B4" s="33" t="s">
         <v>449</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C4" s="33" t="s">
         <v>613</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D4" s="33" t="s">
+        <v>718</v>
+      </c>
+      <c r="E4" s="33" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+    <row r="5" spans="1:5" s="33" customFormat="1">
+      <c r="A5" s="33" t="s">
         <v>614</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B5" s="33" t="s">
         <v>450</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C5" s="33" t="s">
         <v>615</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D5" s="33" t="s">
+        <v>719</v>
+      </c>
+      <c r="E5" s="33" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
-        <v>616</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>448</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>617</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="33" customFormat="1">
       <c r="A6" s="33" t="s">
-        <v>618</v>
+        <v>740</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>449</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>619</v>
+        <v>741</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
+        <v>742</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="33" customFormat="1">
       <c r="A7" s="33" t="s">
-        <v>443</v>
+        <v>744</v>
       </c>
       <c r="B7" s="33" t="s">
         <v>450</v>
       </c>
       <c r="C7" s="33" t="s">
+        <v>745</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>746</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="33" customFormat="1">
+      <c r="A8" s="33" t="s">
+        <v>616</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>448</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>617</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>720</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="33" customFormat="1">
+      <c r="A9" s="33" t="s">
+        <v>618</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>449</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>619</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>718</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="33" customFormat="1">
+      <c r="A10" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>450</v>
+      </c>
+      <c r="C10" s="33" t="s">
         <v>620</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D10" s="33" t="s">
+        <v>719</v>
+      </c>
+      <c r="E10" s="33" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+    <row r="11" spans="1:5" s="33" customFormat="1">
+      <c r="A11" s="33" t="s">
         <v>621</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B11" s="33" t="s">
+        <v>451</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>622</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="33" customFormat="1">
+      <c r="A12" s="33" t="s">
+        <v>623</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>722</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>624</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="33" customFormat="1">
+      <c r="A13" s="33" t="s">
+        <v>724</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>448</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>725</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>717</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="33" customFormat="1">
+      <c r="A14" s="33" t="s">
+        <v>727</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>449</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>728</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>719</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="33" customFormat="1">
+      <c r="A15" s="33" t="s">
+        <v>729</v>
+      </c>
+      <c r="B15" s="33" t="s">
         <v>450</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C15" s="33" t="s">
+        <v>730</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="33" customFormat="1">
+      <c r="A16" s="33" t="s">
+        <v>731</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>451</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>732</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" s="33" customFormat="1">
+      <c r="A17" s="33" t="s">
+        <v>733</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>722</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="33" customFormat="1">
+      <c r="A18" s="33" t="s">
+        <v>735</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>713</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>737</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="33" t="s">
+        <v>738</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>713</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>739</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" s="33" customFormat="1"/>
+    <row r="21" spans="1:21">
+      <c r="A21" t="s">
+        <v>588</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>572</v>
+      </c>
+      <c r="E21" t="s">
+        <v>573</v>
+      </c>
+      <c r="G21" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" t="s">
+        <v>460</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>574</v>
+      </c>
+      <c r="G22" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" t="s">
+        <v>458</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" s="33" customFormat="1"/>
+    <row r="26" spans="1:21">
+      <c r="A26" t="s">
+        <v>566</v>
+      </c>
+      <c r="C26" t="s">
+        <v>567</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" t="s">
+        <v>575</v>
+      </c>
+      <c r="L26" t="s">
+        <v>578</v>
+      </c>
+      <c r="O26" t="s">
+        <v>582</v>
+      </c>
+      <c r="R26" s="33" t="s">
+        <v>570</v>
+      </c>
+      <c r="U26" s="33" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" t="s">
+        <v>567</v>
+      </c>
+      <c r="F27" t="s">
+        <v>589</v>
+      </c>
+      <c r="G27" t="s">
+        <v>460</v>
+      </c>
+      <c r="H27" t="s">
+        <v>591</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="J27" s="32">
+        <v>0.01</v>
+      </c>
+      <c r="K27" s="34" t="s">
+        <v>596</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="M27">
+        <v>30</v>
+      </c>
+      <c r="N27" t="s">
+        <v>598</v>
+      </c>
+      <c r="O27" t="s">
+        <v>4</v>
+      </c>
+      <c r="P27">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="33" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>30</v>
+      </c>
+      <c r="H28" t="s">
+        <v>607</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="J28" s="32">
+        <v>0.01</v>
+      </c>
+      <c r="K28" t="s">
+        <v>595</v>
+      </c>
+      <c r="L28" s="34" t="s">
+        <v>583</v>
+      </c>
+      <c r="M28">
+        <v>5</v>
+      </c>
+      <c r="N28" s="33" t="s">
+        <v>597</v>
+      </c>
+      <c r="O28" s="34" t="s">
+        <v>583</v>
+      </c>
+      <c r="P28">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" t="s">
+        <v>558</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="J29" s="32">
+        <v>45036000000000</v>
+      </c>
+      <c r="K29" t="s">
+        <v>594</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="M29">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>602</v>
+      </c>
+      <c r="O29" s="34" t="s">
+        <v>584</v>
+      </c>
+      <c r="P29">
+        <v>0.85</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" t="s">
+        <v>569</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="J30">
+        <v>100</v>
+      </c>
+      <c r="K30" t="s">
+        <v>593</v>
+      </c>
+      <c r="L30" t="s">
+        <v>599</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>600</v>
+      </c>
+      <c r="O30" s="34" t="s">
+        <v>585</v>
+      </c>
+      <c r="P30">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" t="s">
+        <v>568</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="J31" s="34" t="s">
+        <v>556</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="M31" s="32">
+        <v>0.01</v>
+      </c>
+      <c r="N31" s="34" t="s">
+        <v>601</v>
+      </c>
+      <c r="O31" s="34" t="s">
+        <v>586</v>
+      </c>
+      <c r="P31">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="33" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" t="s">
+        <v>570</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J32" s="34">
+        <v>2</v>
+      </c>
+      <c r="K32" t="s">
+        <v>592</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="M32" s="32">
+        <v>0.01</v>
+      </c>
+      <c r="N32" s="34" t="s">
+        <v>596</v>
+      </c>
+      <c r="O32" s="34" t="s">
+        <v>587</v>
+      </c>
+      <c r="P32">
+        <v>0.8</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" t="s">
+        <v>571</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="M33" s="32">
+        <v>0.01</v>
+      </c>
+      <c r="N33" s="33" t="s">
+        <v>595</v>
+      </c>
+      <c r="O33" s="34" t="s">
+        <v>555</v>
+      </c>
+      <c r="P33" s="34" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="L34" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="M34" s="32">
+        <v>45036000000000</v>
+      </c>
+      <c r="N34" s="33" t="s">
+        <v>594</v>
+      </c>
+      <c r="O34" s="34" t="s">
+        <v>557</v>
+      </c>
+      <c r="P34" s="34">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="33" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="L35" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="M35" s="33">
+        <v>100</v>
+      </c>
+      <c r="N35" s="33" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="L36" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="M36" s="34" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="L37" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="M37" s="34">
+        <v>2</v>
+      </c>
+      <c r="N37" s="33" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" t="s">
+        <v>712</v>
+      </c>
+      <c r="B44" t="s">
+        <v>713</v>
+      </c>
+      <c r="C44" t="s">
+        <v>714</v>
+      </c>
+      <c r="D44" t="s">
+        <v>715</v>
+      </c>
+      <c r="E44" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" t="s">
+        <v>609</v>
+      </c>
+      <c r="B45" t="s">
+        <v>448</v>
+      </c>
+      <c r="C45" t="s">
+        <v>610</v>
+      </c>
+      <c r="D45" t="s">
+        <v>717</v>
+      </c>
+      <c r="E45" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" t="s">
+        <v>612</v>
+      </c>
+      <c r="B46" t="s">
+        <v>449</v>
+      </c>
+      <c r="C46" t="s">
+        <v>613</v>
+      </c>
+      <c r="D46" t="s">
+        <v>718</v>
+      </c>
+      <c r="E46" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" t="s">
+        <v>614</v>
+      </c>
+      <c r="B47" t="s">
+        <v>450</v>
+      </c>
+      <c r="C47" t="s">
+        <v>615</v>
+      </c>
+      <c r="D47" t="s">
+        <v>719</v>
+      </c>
+      <c r="E47" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" t="s">
+        <v>616</v>
+      </c>
+      <c r="B48" t="s">
+        <v>448</v>
+      </c>
+      <c r="C48" t="s">
+        <v>617</v>
+      </c>
+      <c r="D48" t="s">
+        <v>720</v>
+      </c>
+      <c r="E48" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>618</v>
+      </c>
+      <c r="B49" t="s">
+        <v>449</v>
+      </c>
+      <c r="C49" t="s">
+        <v>619</v>
+      </c>
+      <c r="D49" t="s">
+        <v>718</v>
+      </c>
+      <c r="E49" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>443</v>
+      </c>
+      <c r="B50" t="s">
+        <v>450</v>
+      </c>
+      <c r="C50" t="s">
+        <v>620</v>
+      </c>
+      <c r="D50" t="s">
+        <v>719</v>
+      </c>
+      <c r="E50" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>621</v>
+      </c>
+      <c r="B51" t="s">
+        <v>451</v>
+      </c>
+      <c r="C51" t="s">
         <v>622</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D51" t="s">
+        <v>721</v>
+      </c>
+      <c r="E51" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
         <v>623</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B52" t="s">
+        <v>722</v>
+      </c>
+      <c r="C52" t="s">
+        <v>624</v>
+      </c>
+      <c r="D52" t="s">
+        <v>723</v>
+      </c>
+      <c r="E52" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>724</v>
+      </c>
+      <c r="B53" t="s">
+        <v>448</v>
+      </c>
+      <c r="C53" t="s">
+        <v>725</v>
+      </c>
+      <c r="D53" t="s">
+        <v>717</v>
+      </c>
+      <c r="E53" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>727</v>
+      </c>
+      <c r="B54" t="s">
+        <v>449</v>
+      </c>
+      <c r="C54" t="s">
+        <v>728</v>
+      </c>
+      <c r="D54" t="s">
+        <v>719</v>
+      </c>
+      <c r="E54" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>450</v>
+      </c>
+      <c r="C55" t="s">
+        <v>730</v>
+      </c>
+      <c r="D55" t="s">
+        <v>721</v>
+      </c>
+      <c r="E55" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>731</v>
+      </c>
+      <c r="B56" t="s">
         <v>451</v>
       </c>
-      <c r="C9" s="33" t="s">
-        <v>624</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>588</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>572</v>
-      </c>
-      <c r="E11" t="s">
-        <v>573</v>
-      </c>
-      <c r="G11" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>460</v>
-      </c>
-      <c r="C12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>574</v>
-      </c>
-      <c r="G12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>458</v>
-      </c>
-      <c r="C13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>566</v>
-      </c>
-      <c r="C16" t="s">
-        <v>567</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" t="s">
-        <v>575</v>
-      </c>
-      <c r="L16" t="s">
-        <v>578</v>
-      </c>
-      <c r="O16" t="s">
-        <v>582</v>
-      </c>
-      <c r="R16" s="33" t="s">
-        <v>570</v>
-      </c>
-      <c r="U16" s="33" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>567</v>
-      </c>
-      <c r="F17" t="s">
-        <v>589</v>
-      </c>
-      <c r="G17" t="s">
-        <v>460</v>
-      </c>
-      <c r="H17" t="s">
-        <v>591</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="J17" s="32">
-        <v>0.01</v>
-      </c>
-      <c r="K17" s="34" t="s">
-        <v>596</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="M17">
-        <v>30</v>
-      </c>
-      <c r="N17" t="s">
-        <v>598</v>
-      </c>
-      <c r="O17" t="s">
-        <v>4</v>
-      </c>
-      <c r="P17">
-        <v>30</v>
-      </c>
-      <c r="Q17" s="33" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18">
-        <v>30</v>
-      </c>
-      <c r="H18" t="s">
-        <v>607</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="J18" s="32">
-        <v>0.01</v>
-      </c>
-      <c r="K18" t="s">
-        <v>595</v>
-      </c>
-      <c r="L18" s="34" t="s">
-        <v>583</v>
-      </c>
-      <c r="M18">
-        <v>5</v>
-      </c>
-      <c r="N18" s="33" t="s">
-        <v>597</v>
-      </c>
-      <c r="O18" s="34" t="s">
-        <v>583</v>
-      </c>
-      <c r="P18">
-        <v>3</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>558</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="J19" s="32">
-        <v>45036000000000</v>
-      </c>
-      <c r="K19" t="s">
-        <v>594</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="M19">
-        <v>2</v>
-      </c>
-      <c r="N19" t="s">
-        <v>602</v>
-      </c>
-      <c r="O19" s="34" t="s">
-        <v>584</v>
-      </c>
-      <c r="P19">
-        <v>0.85</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>569</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="J20">
-        <v>100</v>
-      </c>
-      <c r="K20" t="s">
-        <v>593</v>
-      </c>
-      <c r="L20" t="s">
-        <v>599</v>
-      </c>
-      <c r="M20">
-        <v>2</v>
-      </c>
-      <c r="N20" t="s">
-        <v>600</v>
-      </c>
-      <c r="O20" s="34" t="s">
-        <v>585</v>
-      </c>
-      <c r="P20">
-        <v>2</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>568</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="J21" s="34" t="s">
-        <v>556</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="M21" s="32">
-        <v>0.01</v>
-      </c>
-      <c r="N21" s="34" t="s">
-        <v>601</v>
-      </c>
-      <c r="O21" s="34" t="s">
-        <v>586</v>
-      </c>
-      <c r="P21">
-        <v>2</v>
-      </c>
-      <c r="Q21" s="33" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>570</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="J22" s="34">
-        <v>2</v>
-      </c>
-      <c r="K22" t="s">
-        <v>592</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="M22" s="32">
-        <v>0.01</v>
-      </c>
-      <c r="N22" s="34" t="s">
-        <v>596</v>
-      </c>
-      <c r="O22" s="34" t="s">
-        <v>587</v>
-      </c>
-      <c r="P22">
-        <v>0.8</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>571</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="M23" s="32">
-        <v>0.01</v>
-      </c>
-      <c r="N23" s="33" t="s">
-        <v>595</v>
-      </c>
-      <c r="O23" s="34" t="s">
-        <v>555</v>
-      </c>
-      <c r="P23" s="34" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="L24" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="M24" s="32">
-        <v>45036000000000</v>
-      </c>
-      <c r="N24" s="33" t="s">
-        <v>594</v>
-      </c>
-      <c r="O24" s="34" t="s">
-        <v>557</v>
-      </c>
-      <c r="P24" s="34">
-        <v>2</v>
-      </c>
-      <c r="Q24" s="33" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="L25" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="M25" s="33">
-        <v>100</v>
-      </c>
-      <c r="N25" s="33" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="L26" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="M26" s="34" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="L27" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="M27" s="34">
-        <v>2</v>
-      </c>
-      <c r="N27" s="33" t="s">
-        <v>592</v>
+      <c r="C56" t="s">
+        <v>732</v>
+      </c>
+      <c r="D56" t="s">
+        <v>723</v>
+      </c>
+      <c r="E56" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>733</v>
+      </c>
+      <c r="B57" t="s">
+        <v>722</v>
+      </c>
+      <c r="C57" t="s">
+        <v>734</v>
+      </c>
+      <c r="D57" t="s">
+        <v>723</v>
+      </c>
+      <c r="E57" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>735</v>
+      </c>
+      <c r="B58" t="s">
+        <v>713</v>
+      </c>
+      <c r="C58" t="s">
+        <v>736</v>
+      </c>
+      <c r="D58" t="s">
+        <v>737</v>
+      </c>
+      <c r="E58" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>738</v>
+      </c>
+      <c r="B59" t="s">
+        <v>713</v>
+      </c>
+      <c r="C59" t="s">
+        <v>739</v>
+      </c>
+      <c r="D59" t="s">
+        <v>721</v>
+      </c>
+      <c r="E59" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>740</v>
+      </c>
+      <c r="B60" t="s">
+        <v>449</v>
+      </c>
+      <c r="C60" t="s">
+        <v>741</v>
+      </c>
+      <c r="D60" t="s">
+        <v>742</v>
+      </c>
+      <c r="E60" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>744</v>
+      </c>
+      <c r="B61" t="s">
+        <v>450</v>
+      </c>
+      <c r="C61" t="s">
+        <v>745</v>
+      </c>
+      <c r="D61" t="s">
+        <v>746</v>
+      </c>
+      <c r="E61" t="s">
+        <v>743</v>
       </c>
     </row>
   </sheetData>
